--- a/嵌入式测试表/嵌入式测控设备第二套.xlsx
+++ b/嵌入式测试表/嵌入式测控设备第二套.xlsx
@@ -851,10 +851,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -876,6 +876,69 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -885,86 +948,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -982,23 +988,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1018,23 +1018,23 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1348,43 +1348,43 @@
   </sheetPr>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="7.77734375" customWidth="1" style="64" min="2" max="2"/>
-    <col hidden="1" width="8.88671875" customWidth="1" style="64" min="3" max="3"/>
-    <col width="7.33203125" customWidth="1" style="64" min="6" max="6"/>
-    <col hidden="1" width="2.5546875" customWidth="1" style="64" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="64" min="9" max="9"/>
-    <col width="5.21875" customWidth="1" style="64" min="10" max="10"/>
-    <col hidden="1" width="1.5546875" customWidth="1" style="64" min="11" max="11"/>
-    <col width="14.5546875" customWidth="1" style="64" min="13" max="13"/>
+    <col width="7.77734375" customWidth="1" style="39" min="2" max="2"/>
+    <col hidden="1" width="8.88671875" customWidth="1" style="39" min="3" max="3"/>
+    <col width="7.33203125" customWidth="1" style="39" min="6" max="6"/>
+    <col hidden="1" width="2.5546875" customWidth="1" style="39" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="39" min="9" max="9"/>
+    <col width="5.21875" customWidth="1" style="39" min="10" max="10"/>
+    <col hidden="1" width="1.5546875" customWidth="1" style="39" min="11" max="11"/>
+    <col width="14.5546875" customWidth="1" style="39" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.6" customHeight="1" s="64">
-      <c r="A1" s="51" t="inlineStr">
+    <row r="1" ht="30.6" customHeight="1" s="39">
+      <c r="A1" s="53" t="inlineStr">
         <is>
           <t>XX-5X动力测控系统嵌入式测控设备
 测试记录表</t>
         </is>
       </c>
-      <c r="B1" s="52" t="n"/>
-      <c r="C1" s="52" t="n"/>
-      <c r="D1" s="52" t="n"/>
-      <c r="E1" s="52" t="n"/>
-      <c r="F1" s="52" t="n"/>
-      <c r="G1" s="52" t="n"/>
-      <c r="H1" s="52" t="n"/>
-      <c r="I1" s="52" t="n"/>
-      <c r="J1" s="52" t="n"/>
-      <c r="K1" s="52" t="n"/>
-      <c r="L1" s="52" t="n"/>
-      <c r="M1" s="53" t="n"/>
-    </row>
-    <row r="2" ht="28.2" customHeight="1" s="64" thickBot="1">
+      <c r="B1" s="36" t="n"/>
+      <c r="C1" s="36" t="n"/>
+      <c r="D1" s="36" t="n"/>
+      <c r="E1" s="36" t="n"/>
+      <c r="F1" s="36" t="n"/>
+      <c r="G1" s="36" t="n"/>
+      <c r="H1" s="36" t="n"/>
+      <c r="I1" s="36" t="n"/>
+      <c r="J1" s="36" t="n"/>
+      <c r="K1" s="36" t="n"/>
+      <c r="L1" s="36" t="n"/>
+      <c r="M1" s="44" t="n"/>
+    </row>
+    <row r="2" ht="28.2" customHeight="1" s="39" thickBot="1">
       <c r="A2" s="54" t="n"/>
       <c r="B2" s="55" t="n"/>
       <c r="C2" s="55" t="n"/>
@@ -1399,359 +1399,359 @@
       <c r="L2" s="55" t="n"/>
       <c r="M2" s="56" t="n"/>
     </row>
-    <row r="3" ht="33" customHeight="1" s="64" thickBot="1" thickTop="1">
-      <c r="A3" s="33" t="inlineStr">
+    <row r="3" ht="33" customHeight="1" s="39" thickBot="1" thickTop="1">
+      <c r="A3" s="68" t="inlineStr">
         <is>
           <t>研  制  阶  段</t>
         </is>
       </c>
-      <c r="B3" s="34" t="n"/>
-      <c r="C3" s="35" t="n"/>
-      <c r="D3" s="36" t="inlineStr">
+      <c r="B3" s="69" t="n"/>
+      <c r="C3" s="70" t="n"/>
+      <c r="D3" s="71" t="inlineStr">
         <is>
           <t>初样（   ）试样（ √   ）定型（  ）</t>
         </is>
       </c>
-      <c r="E3" s="34" t="n"/>
-      <c r="F3" s="34" t="n"/>
-      <c r="G3" s="34" t="n"/>
-      <c r="H3" s="34" t="n"/>
-      <c r="I3" s="34" t="n"/>
-      <c r="J3" s="34" t="n"/>
-      <c r="K3" s="34" t="n"/>
-      <c r="L3" s="34" t="n"/>
-      <c r="M3" s="37" t="n"/>
-    </row>
-    <row r="4" ht="31.8" customHeight="1" s="64" thickBot="1">
-      <c r="A4" s="38" t="inlineStr">
+      <c r="E3" s="69" t="n"/>
+      <c r="F3" s="69" t="n"/>
+      <c r="G3" s="69" t="n"/>
+      <c r="H3" s="69" t="n"/>
+      <c r="I3" s="69" t="n"/>
+      <c r="J3" s="69" t="n"/>
+      <c r="K3" s="69" t="n"/>
+      <c r="L3" s="69" t="n"/>
+      <c r="M3" s="72" t="n"/>
+    </row>
+    <row r="4" ht="31.8" customHeight="1" s="39" thickBot="1">
+      <c r="A4" s="62" t="inlineStr">
         <is>
           <t>产  品  代  号</t>
         </is>
       </c>
-      <c r="B4" s="39" t="n"/>
-      <c r="C4" s="40" t="n"/>
-      <c r="D4" s="41" t="inlineStr">
+      <c r="B4" s="48" t="n"/>
+      <c r="C4" s="60" t="n"/>
+      <c r="D4" s="63" t="inlineStr">
         <is>
           <t>1XK611-5X</t>
         </is>
       </c>
-      <c r="E4" s="39" t="n"/>
-      <c r="F4" s="39" t="n"/>
-      <c r="G4" s="39" t="n"/>
-      <c r="H4" s="39" t="n"/>
-      <c r="I4" s="39" t="n"/>
-      <c r="J4" s="39" t="n"/>
-      <c r="K4" s="39" t="n"/>
-      <c r="L4" s="39" t="n"/>
-      <c r="M4" s="42" t="n"/>
-    </row>
-    <row r="5" ht="34.8" customHeight="1" s="64" thickBot="1">
-      <c r="A5" s="38" t="inlineStr">
+      <c r="E4" s="48" t="n"/>
+      <c r="F4" s="48" t="n"/>
+      <c r="G4" s="48" t="n"/>
+      <c r="H4" s="48" t="n"/>
+      <c r="I4" s="48" t="n"/>
+      <c r="J4" s="48" t="n"/>
+      <c r="K4" s="48" t="n"/>
+      <c r="L4" s="48" t="n"/>
+      <c r="M4" s="49" t="n"/>
+    </row>
+    <row r="5" ht="34.8" customHeight="1" s="39" thickBot="1">
+      <c r="A5" s="62" t="inlineStr">
         <is>
           <t>产  品  编  号</t>
         </is>
       </c>
-      <c r="B5" s="39" t="n"/>
-      <c r="C5" s="40" t="n"/>
-      <c r="D5" s="41" t="inlineStr">
+      <c r="B5" s="48" t="n"/>
+      <c r="C5" s="60" t="n"/>
+      <c r="D5" s="63" t="inlineStr">
         <is>
           <t>Ae201901001</t>
         </is>
       </c>
-      <c r="E5" s="39" t="n"/>
-      <c r="F5" s="39" t="n"/>
-      <c r="G5" s="39" t="n"/>
-      <c r="H5" s="39" t="n"/>
-      <c r="I5" s="39" t="n"/>
-      <c r="J5" s="39" t="n"/>
-      <c r="K5" s="39" t="n"/>
-      <c r="L5" s="39" t="n"/>
-      <c r="M5" s="42" t="n"/>
-    </row>
-    <row r="6" ht="33.6" customHeight="1" s="64" thickBot="1">
-      <c r="A6" s="38" t="inlineStr">
+      <c r="E5" s="48" t="n"/>
+      <c r="F5" s="48" t="n"/>
+      <c r="G5" s="48" t="n"/>
+      <c r="H5" s="48" t="n"/>
+      <c r="I5" s="48" t="n"/>
+      <c r="J5" s="48" t="n"/>
+      <c r="K5" s="48" t="n"/>
+      <c r="L5" s="48" t="n"/>
+      <c r="M5" s="49" t="n"/>
+    </row>
+    <row r="6" ht="33.6" customHeight="1" s="39" thickBot="1">
+      <c r="A6" s="62" t="inlineStr">
         <is>
           <t>调（测）试人员</t>
         </is>
       </c>
-      <c r="B6" s="39" t="n"/>
-      <c r="C6" s="40" t="n"/>
-      <c r="D6" s="43" t="inlineStr">
-        <is>
-          <t>解梦迪2019/12/22</t>
-        </is>
-      </c>
-      <c r="E6" s="39" t="n"/>
-      <c r="F6" s="39" t="n"/>
-      <c r="G6" s="39" t="n"/>
-      <c r="H6" s="39" t="n"/>
-      <c r="I6" s="39" t="n"/>
-      <c r="J6" s="39" t="n"/>
-      <c r="K6" s="39" t="n"/>
-      <c r="L6" s="39" t="n"/>
-      <c r="M6" s="42" t="n"/>
-    </row>
-    <row r="7" ht="28.2" customHeight="1" s="64" thickBot="1">
-      <c r="A7" s="38" t="inlineStr">
+      <c r="B6" s="48" t="n"/>
+      <c r="C6" s="60" t="n"/>
+      <c r="D6" s="61" t="inlineStr">
+        <is>
+          <t>解梦迪,2019/12/24</t>
+        </is>
+      </c>
+      <c r="E6" s="48" t="n"/>
+      <c r="F6" s="48" t="n"/>
+      <c r="G6" s="48" t="n"/>
+      <c r="H6" s="48" t="n"/>
+      <c r="I6" s="48" t="n"/>
+      <c r="J6" s="48" t="n"/>
+      <c r="K6" s="48" t="n"/>
+      <c r="L6" s="48" t="n"/>
+      <c r="M6" s="49" t="n"/>
+    </row>
+    <row r="7" ht="28.2" customHeight="1" s="39" thickBot="1">
+      <c r="A7" s="62" t="inlineStr">
         <is>
           <t>军事代表签字：</t>
         </is>
       </c>
-      <c r="B7" s="39" t="n"/>
-      <c r="C7" s="40" t="n"/>
-      <c r="D7" s="41" t="n"/>
-      <c r="E7" s="39" t="n"/>
-      <c r="F7" s="39" t="n"/>
-      <c r="G7" s="39" t="n"/>
-      <c r="H7" s="39" t="n"/>
-      <c r="I7" s="39" t="n"/>
-      <c r="J7" s="39" t="n"/>
-      <c r="K7" s="39" t="n"/>
-      <c r="L7" s="39" t="n"/>
-      <c r="M7" s="42" t="n"/>
-    </row>
-    <row r="8" ht="28.8" customHeight="1" s="64" thickBot="1">
-      <c r="A8" s="38" t="inlineStr">
+      <c r="B7" s="48" t="n"/>
+      <c r="C7" s="60" t="n"/>
+      <c r="D7" s="63" t="n"/>
+      <c r="E7" s="48" t="n"/>
+      <c r="F7" s="48" t="n"/>
+      <c r="G7" s="48" t="n"/>
+      <c r="H7" s="48" t="n"/>
+      <c r="I7" s="48" t="n"/>
+      <c r="J7" s="48" t="n"/>
+      <c r="K7" s="48" t="n"/>
+      <c r="L7" s="48" t="n"/>
+      <c r="M7" s="49" t="n"/>
+    </row>
+    <row r="8" ht="28.8" customHeight="1" s="39" thickBot="1">
+      <c r="A8" s="62" t="inlineStr">
         <is>
           <t>调（测）试地点</t>
         </is>
       </c>
-      <c r="B8" s="39" t="n"/>
-      <c r="C8" s="40" t="n"/>
-      <c r="D8" s="43" t="inlineStr">
+      <c r="B8" s="48" t="n"/>
+      <c r="C8" s="60" t="n"/>
+      <c r="D8" s="61" t="inlineStr">
         <is>
           <t>北京航天测控技术有限公司</t>
         </is>
       </c>
-      <c r="E8" s="39" t="n"/>
-      <c r="F8" s="39" t="n"/>
-      <c r="G8" s="39" t="n"/>
-      <c r="H8" s="39" t="n"/>
-      <c r="I8" s="39" t="n"/>
-      <c r="J8" s="39" t="n"/>
-      <c r="K8" s="39" t="n"/>
-      <c r="L8" s="39" t="n"/>
-      <c r="M8" s="42" t="n"/>
-    </row>
-    <row r="9" ht="32.4" customHeight="1" s="64" thickBot="1">
-      <c r="A9" s="38" t="inlineStr">
+      <c r="E8" s="48" t="n"/>
+      <c r="F8" s="48" t="n"/>
+      <c r="G8" s="48" t="n"/>
+      <c r="H8" s="48" t="n"/>
+      <c r="I8" s="48" t="n"/>
+      <c r="J8" s="48" t="n"/>
+      <c r="K8" s="48" t="n"/>
+      <c r="L8" s="48" t="n"/>
+      <c r="M8" s="49" t="n"/>
+    </row>
+    <row r="9" ht="32.4" customHeight="1" s="39" thickBot="1">
+      <c r="A9" s="62" t="inlineStr">
         <is>
           <t>调（测）试结果</t>
         </is>
       </c>
-      <c r="B9" s="39" t="n"/>
-      <c r="C9" s="40" t="n"/>
-      <c r="D9" s="43" t="inlineStr">
+      <c r="B9" s="48" t="n"/>
+      <c r="C9" s="60" t="n"/>
+      <c r="D9" s="61" t="inlineStr">
         <is>
           <t>合格（  √  ） /  不合格（   ）</t>
         </is>
       </c>
-      <c r="E9" s="39" t="n"/>
-      <c r="F9" s="39" t="n"/>
-      <c r="G9" s="39" t="n"/>
-      <c r="H9" s="39" t="n"/>
-      <c r="I9" s="39" t="n"/>
-      <c r="J9" s="39" t="n"/>
-      <c r="K9" s="39" t="n"/>
-      <c r="L9" s="39" t="n"/>
-      <c r="M9" s="42" t="n"/>
-    </row>
-    <row r="10" ht="30.6" customHeight="1" s="64" thickBot="1">
-      <c r="A10" s="38" t="inlineStr">
+      <c r="E9" s="48" t="n"/>
+      <c r="F9" s="48" t="n"/>
+      <c r="G9" s="48" t="n"/>
+      <c r="H9" s="48" t="n"/>
+      <c r="I9" s="48" t="n"/>
+      <c r="J9" s="48" t="n"/>
+      <c r="K9" s="48" t="n"/>
+      <c r="L9" s="48" t="n"/>
+      <c r="M9" s="49" t="n"/>
+    </row>
+    <row r="10" ht="30.6" customHeight="1" s="39" thickBot="1">
+      <c r="A10" s="62" t="inlineStr">
         <is>
           <t>温          度</t>
         </is>
       </c>
-      <c r="B10" s="39" t="n"/>
-      <c r="C10" s="40" t="n"/>
-      <c r="D10" s="44" t="inlineStr">
+      <c r="B10" s="48" t="n"/>
+      <c r="C10" s="60" t="n"/>
+      <c r="D10" s="66" t="inlineStr">
         <is>
           <t>0.59</t>
         </is>
       </c>
-      <c r="E10" s="39" t="n"/>
-      <c r="F10" s="39" t="n"/>
-      <c r="G10" s="39" t="n"/>
-      <c r="H10" s="39" t="n"/>
-      <c r="I10" s="39" t="n"/>
-      <c r="J10" s="39" t="n"/>
-      <c r="K10" s="39" t="n"/>
-      <c r="L10" s="39" t="n"/>
-      <c r="M10" s="39" t="n"/>
-    </row>
-    <row r="11" ht="29.4" customHeight="1" s="64" thickBot="1">
-      <c r="A11" s="38" t="inlineStr">
+      <c r="E10" s="48" t="n"/>
+      <c r="F10" s="48" t="n"/>
+      <c r="G10" s="48" t="n"/>
+      <c r="H10" s="48" t="n"/>
+      <c r="I10" s="48" t="n"/>
+      <c r="J10" s="48" t="n"/>
+      <c r="K10" s="48" t="n"/>
+      <c r="L10" s="48" t="n"/>
+      <c r="M10" s="48" t="n"/>
+    </row>
+    <row r="11" ht="29.4" customHeight="1" s="39" thickBot="1">
+      <c r="A11" s="62" t="inlineStr">
         <is>
           <t>湿          度</t>
         </is>
       </c>
-      <c r="B11" s="39" t="n"/>
-      <c r="C11" s="40" t="n"/>
-      <c r="D11" s="45" t="inlineStr">
+      <c r="B11" s="48" t="n"/>
+      <c r="C11" s="60" t="n"/>
+      <c r="D11" s="67" t="inlineStr">
         <is>
           <t>80℃</t>
         </is>
       </c>
-      <c r="E11" s="39" t="n"/>
-      <c r="F11" s="39" t="n"/>
-      <c r="G11" s="39" t="n"/>
-      <c r="H11" s="39" t="n"/>
-      <c r="I11" s="39" t="n"/>
-      <c r="J11" s="39" t="n"/>
-      <c r="K11" s="39" t="n"/>
-      <c r="L11" s="39" t="n"/>
-      <c r="M11" s="42" t="n"/>
-    </row>
-    <row r="12" ht="40.8" customHeight="1" s="64" thickBot="1">
-      <c r="A12" s="38" t="inlineStr">
+      <c r="E11" s="48" t="n"/>
+      <c r="F11" s="48" t="n"/>
+      <c r="G11" s="48" t="n"/>
+      <c r="H11" s="48" t="n"/>
+      <c r="I11" s="48" t="n"/>
+      <c r="J11" s="48" t="n"/>
+      <c r="K11" s="48" t="n"/>
+      <c r="L11" s="48" t="n"/>
+      <c r="M11" s="49" t="n"/>
+    </row>
+    <row r="12" ht="40.8" customHeight="1" s="39" thickBot="1">
+      <c r="A12" s="62" t="inlineStr">
         <is>
           <t>仪器、工装 名称</t>
         </is>
       </c>
-      <c r="B12" s="39" t="n"/>
-      <c r="C12" s="40" t="n"/>
-      <c r="D12" s="50" t="inlineStr">
+      <c r="B12" s="48" t="n"/>
+      <c r="C12" s="60" t="n"/>
+      <c r="D12" s="64" t="inlineStr">
         <is>
           <t>仪器、工装型号(编号)</t>
         </is>
       </c>
-      <c r="E12" s="39" t="n"/>
-      <c r="F12" s="39" t="n"/>
-      <c r="G12" s="40" t="n"/>
-      <c r="H12" s="50" t="inlineStr">
+      <c r="E12" s="48" t="n"/>
+      <c r="F12" s="48" t="n"/>
+      <c r="G12" s="60" t="n"/>
+      <c r="H12" s="64" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="I12" s="39" t="n"/>
-      <c r="J12" s="40" t="n"/>
-      <c r="K12" s="43" t="inlineStr">
+      <c r="I12" s="48" t="n"/>
+      <c r="J12" s="60" t="n"/>
+      <c r="K12" s="61" t="inlineStr">
         <is>
           <t>校准有效期</t>
         </is>
       </c>
-      <c r="L12" s="39" t="n"/>
-      <c r="M12" s="42" t="n"/>
-    </row>
-    <row r="13" ht="29.4" customHeight="1" s="64" thickBot="1">
-      <c r="A13" s="38" t="inlineStr">
+      <c r="L12" s="48" t="n"/>
+      <c r="M12" s="49" t="n"/>
+    </row>
+    <row r="13" ht="29.4" customHeight="1" s="39" thickBot="1">
+      <c r="A13" s="62" t="inlineStr">
         <is>
           <t>万用表</t>
         </is>
       </c>
-      <c r="B13" s="39" t="n"/>
-      <c r="C13" s="40" t="n"/>
-      <c r="D13" s="49" t="inlineStr">
+      <c r="B13" s="48" t="n"/>
+      <c r="C13" s="60" t="n"/>
+      <c r="D13" s="59" t="inlineStr">
         <is>
           <t>FLUKE15B</t>
         </is>
       </c>
-      <c r="E13" s="39" t="n"/>
-      <c r="F13" s="39" t="n"/>
-      <c r="G13" s="40" t="n"/>
-      <c r="H13" s="49" t="n">
+      <c r="E13" s="48" t="n"/>
+      <c r="F13" s="48" t="n"/>
+      <c r="G13" s="60" t="n"/>
+      <c r="H13" s="59" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="39" t="n"/>
-      <c r="J13" s="40" t="n"/>
-      <c r="K13" s="41" t="inlineStr">
+      <c r="I13" s="48" t="n"/>
+      <c r="J13" s="60" t="n"/>
+      <c r="K13" s="63" t="inlineStr">
         <is>
           <t>20190620-20200619</t>
         </is>
       </c>
-      <c r="L13" s="39" t="n"/>
-      <c r="M13" s="42" t="n"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" s="64" thickBot="1">
-      <c r="A14" s="38" t="inlineStr">
+      <c r="L13" s="48" t="n"/>
+      <c r="M13" s="49" t="n"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" s="39" thickBot="1">
+      <c r="A14" s="62" t="inlineStr">
         <is>
           <t>直流稳压电源</t>
         </is>
       </c>
-      <c r="B14" s="39" t="n"/>
-      <c r="C14" s="40" t="n"/>
-      <c r="D14" s="49" t="inlineStr">
+      <c r="B14" s="48" t="n"/>
+      <c r="C14" s="60" t="n"/>
+      <c r="D14" s="59" t="inlineStr">
         <is>
           <t>DH1718D-5</t>
         </is>
       </c>
-      <c r="E14" s="39" t="n"/>
-      <c r="F14" s="39" t="n"/>
-      <c r="G14" s="40" t="n"/>
-      <c r="H14" s="49" t="n">
+      <c r="E14" s="48" t="n"/>
+      <c r="F14" s="48" t="n"/>
+      <c r="G14" s="60" t="n"/>
+      <c r="H14" s="59" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="39" t="n"/>
-      <c r="J14" s="40" t="n"/>
-      <c r="K14" s="41" t="inlineStr">
+      <c r="I14" s="48" t="n"/>
+      <c r="J14" s="60" t="n"/>
+      <c r="K14" s="63" t="inlineStr">
         <is>
           <t>20190620-20200619</t>
         </is>
       </c>
-      <c r="L14" s="39" t="n"/>
-      <c r="M14" s="42" t="n"/>
-    </row>
-    <row r="15" ht="22.8" customHeight="1" s="64" thickBot="1">
-      <c r="A15" s="46" t="inlineStr">
+      <c r="L14" s="48" t="n"/>
+      <c r="M14" s="49" t="n"/>
+    </row>
+    <row r="15" ht="22.8" customHeight="1" s="39" thickBot="1">
+      <c r="A15" s="65" t="inlineStr">
         <is>
           <t>实验项（在对应试验项打√）</t>
         </is>
       </c>
-      <c r="B15" s="39" t="n"/>
-      <c r="C15" s="39" t="n"/>
-      <c r="D15" s="39" t="n"/>
-      <c r="E15" s="39" t="n"/>
-      <c r="F15" s="39" t="n"/>
-      <c r="G15" s="39" t="n"/>
-      <c r="H15" s="39" t="n"/>
-      <c r="I15" s="39" t="n"/>
-      <c r="J15" s="39" t="n"/>
-      <c r="K15" s="39" t="n"/>
-      <c r="L15" s="39" t="n"/>
-      <c r="M15" s="42" t="n"/>
-    </row>
-    <row r="16" ht="30.6" customHeight="1" s="64" thickBot="1">
-      <c r="A16" s="47" t="inlineStr">
+      <c r="B15" s="48" t="n"/>
+      <c r="C15" s="48" t="n"/>
+      <c r="D15" s="48" t="n"/>
+      <c r="E15" s="48" t="n"/>
+      <c r="F15" s="48" t="n"/>
+      <c r="G15" s="48" t="n"/>
+      <c r="H15" s="48" t="n"/>
+      <c r="I15" s="48" t="n"/>
+      <c r="J15" s="48" t="n"/>
+      <c r="K15" s="48" t="n"/>
+      <c r="L15" s="48" t="n"/>
+      <c r="M15" s="49" t="n"/>
+    </row>
+    <row r="16" ht="30.6" customHeight="1" s="39" thickBot="1">
+      <c r="A16" s="33" t="inlineStr">
         <is>
           <t>环境应力筛选前</t>
         </is>
       </c>
-      <c r="B16" s="39" t="n"/>
-      <c r="C16" s="42" t="n"/>
-      <c r="D16" s="48" t="inlineStr">
+      <c r="B16" s="48" t="n"/>
+      <c r="C16" s="49" t="n"/>
+      <c r="D16" s="47" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="E16" s="39" t="n"/>
-      <c r="F16" s="42" t="n"/>
-      <c r="G16" s="47" t="inlineStr">
+      <c r="E16" s="48" t="n"/>
+      <c r="F16" s="49" t="n"/>
+      <c r="G16" s="33" t="inlineStr">
         <is>
           <t>模拟运输</t>
         </is>
       </c>
-      <c r="H16" s="53" t="n"/>
+      <c r="H16" s="44" t="n"/>
       <c r="I16" s="18" t="inlineStr">
         <is>
           <t>运输前</t>
         </is>
       </c>
-      <c r="J16" s="48" t="inlineStr">
+      <c r="J16" s="47" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="K16" s="39" t="n"/>
-      <c r="L16" s="39" t="n"/>
-      <c r="M16" s="42" t="n"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" s="64" thickBot="1">
-      <c r="A17" s="47" t="inlineStr">
+      <c r="K16" s="48" t="n"/>
+      <c r="L16" s="48" t="n"/>
+      <c r="M16" s="49" t="n"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" s="39" thickBot="1">
+      <c r="A17" s="33" t="inlineStr">
         <is>
           <t>环境应力筛选</t>
         </is>
       </c>
-      <c r="B17" s="47" t="inlineStr">
+      <c r="B17" s="33" t="inlineStr">
         <is>
           <t>缺点剔除阶段</t>
         </is>
@@ -1761,60 +1761,60 @@
           <t>振前</t>
         </is>
       </c>
-      <c r="D17" s="48" t="inlineStr">
+      <c r="D17" s="47" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="E17" s="39" t="n"/>
-      <c r="F17" s="42" t="n"/>
-      <c r="G17" s="71" t="n"/>
-      <c r="H17" s="72" t="n"/>
-      <c r="I17" s="47" t="inlineStr">
+      <c r="E17" s="48" t="n"/>
+      <c r="F17" s="49" t="n"/>
+      <c r="G17" s="50" t="n"/>
+      <c r="H17" s="51" t="n"/>
+      <c r="I17" s="33" t="inlineStr">
         <is>
           <t>运输后</t>
         </is>
       </c>
-      <c r="J17" s="48" t="inlineStr">
+      <c r="J17" s="47" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="K17" s="52" t="n"/>
-      <c r="L17" s="52" t="n"/>
-      <c r="M17" s="53" t="n"/>
-    </row>
-    <row r="18" ht="28.2" customHeight="1" s="64" thickBot="1">
-      <c r="A18" s="58" t="n"/>
-      <c r="B18" s="60" t="n"/>
+      <c r="K17" s="36" t="n"/>
+      <c r="L17" s="36" t="n"/>
+      <c r="M17" s="44" t="n"/>
+    </row>
+    <row r="18" ht="28.2" customHeight="1" s="39" thickBot="1">
+      <c r="A18" s="52" t="n"/>
+      <c r="B18" s="34" t="n"/>
       <c r="C18" s="18" t="inlineStr">
         <is>
           <t>振后</t>
         </is>
       </c>
-      <c r="D18" s="48" t="inlineStr">
+      <c r="D18" s="47" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="E18" s="39" t="n"/>
-      <c r="F18" s="42" t="n"/>
-      <c r="G18" s="69" t="n"/>
-      <c r="H18" s="70" t="n"/>
-      <c r="I18" s="60" t="n"/>
-      <c r="J18" s="69" t="n"/>
-      <c r="K18" s="67" t="n"/>
-      <c r="L18" s="67" t="n"/>
-      <c r="M18" s="70" t="n"/>
-    </row>
-    <row r="19" ht="31.2" customHeight="1" s="64" thickBot="1">
-      <c r="A19" s="58" t="n"/>
-      <c r="B19" s="47" t="inlineStr">
+      <c r="E18" s="48" t="n"/>
+      <c r="F18" s="49" t="n"/>
+      <c r="G18" s="45" t="n"/>
+      <c r="H18" s="46" t="n"/>
+      <c r="I18" s="34" t="n"/>
+      <c r="J18" s="45" t="n"/>
+      <c r="K18" s="42" t="n"/>
+      <c r="L18" s="42" t="n"/>
+      <c r="M18" s="46" t="n"/>
+    </row>
+    <row r="19" ht="31.2" customHeight="1" s="39" thickBot="1">
+      <c r="A19" s="52" t="n"/>
+      <c r="B19" s="33" t="inlineStr">
         <is>
           <t>温度循环</t>
         </is>
       </c>
-      <c r="C19" s="42" t="n"/>
+      <c r="C19" s="49" t="n"/>
       <c r="D19" s="18" t="inlineStr">
         <is>
           <t>第</t>
@@ -1830,19 +1830,19 @@
           <t>循环</t>
         </is>
       </c>
-      <c r="G19" s="47" t="inlineStr">
+      <c r="G19" s="33" t="inlineStr">
         <is>
           <t>老炼过程中</t>
         </is>
       </c>
-      <c r="H19" s="39" t="n"/>
-      <c r="I19" s="42" t="n"/>
-      <c r="J19" s="47" t="inlineStr">
+      <c r="H19" s="48" t="n"/>
+      <c r="I19" s="49" t="n"/>
+      <c r="J19" s="33" t="inlineStr">
         <is>
           <t>第</t>
         </is>
       </c>
-      <c r="K19" s="42" t="n"/>
+      <c r="K19" s="49" t="n"/>
       <c r="L19" s="17" t="inlineStr">
         <is>
           <t>/</t>
@@ -1854,9 +1854,9 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="27" customHeight="1" s="64" thickBot="1">
-      <c r="A20" s="58" t="n"/>
-      <c r="B20" s="47" t="inlineStr">
+    <row r="20" ht="27" customHeight="1" s="39" thickBot="1">
+      <c r="A20" s="52" t="n"/>
+      <c r="B20" s="33" t="inlineStr">
         <is>
           <t>无故障检验阶段</t>
         </is>
@@ -1866,194 +1866,212 @@
           <t>振前</t>
         </is>
       </c>
-      <c r="D20" s="48" t="inlineStr">
+      <c r="D20" s="47" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="E20" s="39" t="n"/>
-      <c r="F20" s="42" t="n"/>
-      <c r="G20" s="47" t="inlineStr">
+      <c r="E20" s="48" t="n"/>
+      <c r="F20" s="49" t="n"/>
+      <c r="G20" s="33" t="inlineStr">
         <is>
           <t>出厂检验</t>
         </is>
       </c>
-      <c r="H20" s="52" t="n"/>
-      <c r="I20" s="53" t="n"/>
-      <c r="J20" s="48" t="inlineStr">
+      <c r="H20" s="36" t="n"/>
+      <c r="I20" s="44" t="n"/>
+      <c r="J20" s="47" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="K20" s="52" t="n"/>
-      <c r="L20" s="52" t="n"/>
-      <c r="M20" s="53" t="n"/>
-    </row>
-    <row r="21" ht="27.6" customHeight="1" s="64" thickBot="1">
-      <c r="A21" s="60" t="n"/>
-      <c r="B21" s="60" t="n"/>
+      <c r="K20" s="36" t="n"/>
+      <c r="L20" s="36" t="n"/>
+      <c r="M20" s="44" t="n"/>
+    </row>
+    <row r="21" ht="27.6" customHeight="1" s="39" thickBot="1">
+      <c r="A21" s="34" t="n"/>
+      <c r="B21" s="34" t="n"/>
       <c r="C21" s="18" t="inlineStr">
         <is>
           <t>振后</t>
         </is>
       </c>
-      <c r="D21" s="48" t="inlineStr">
+      <c r="D21" s="47" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="E21" s="39" t="n"/>
-      <c r="F21" s="42" t="n"/>
-      <c r="G21" s="69" t="n"/>
-      <c r="H21" s="67" t="n"/>
-      <c r="I21" s="70" t="n"/>
-      <c r="J21" s="69" t="n"/>
-      <c r="K21" s="67" t="n"/>
-      <c r="L21" s="67" t="n"/>
-      <c r="M21" s="70" t="n"/>
-    </row>
-    <row r="22" ht="38.4" customHeight="1" s="64" thickBot="1">
+      <c r="E21" s="48" t="n"/>
+      <c r="F21" s="49" t="n"/>
+      <c r="G21" s="45" t="n"/>
+      <c r="H21" s="42" t="n"/>
+      <c r="I21" s="46" t="n"/>
+      <c r="J21" s="45" t="n"/>
+      <c r="K21" s="42" t="n"/>
+      <c r="L21" s="42" t="n"/>
+      <c r="M21" s="46" t="n"/>
+    </row>
+    <row r="22" ht="38.4" customHeight="1" s="39" thickBot="1">
       <c r="A22" s="57" t="inlineStr">
         <is>
           <t>高低温贮存试验</t>
         </is>
       </c>
-      <c r="B22" s="47" t="inlineStr">
+      <c r="B22" s="33" t="inlineStr">
         <is>
           <t>高温贮存后</t>
         </is>
       </c>
-      <c r="C22" s="42" t="n"/>
-      <c r="D22" s="48" t="inlineStr">
+      <c r="C22" s="49" t="n"/>
+      <c r="D22" s="47" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="E22" s="39" t="n"/>
-      <c r="F22" s="42" t="n"/>
-      <c r="G22" s="47" t="inlineStr">
+      <c r="E22" s="48" t="n"/>
+      <c r="F22" s="49" t="n"/>
+      <c r="G22" s="33" t="inlineStr">
         <is>
           <t>其他（         ）</t>
         </is>
       </c>
-      <c r="H22" s="39" t="n"/>
-      <c r="I22" s="42" t="n"/>
-      <c r="J22" s="48" t="inlineStr">
+      <c r="H22" s="48" t="n"/>
+      <c r="I22" s="49" t="n"/>
+      <c r="J22" s="47" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="K22" s="39" t="n"/>
-      <c r="L22" s="39" t="n"/>
-      <c r="M22" s="42" t="n"/>
-    </row>
-    <row r="23" ht="33" customHeight="1" s="64" thickBot="1">
-      <c r="A23" s="58" t="n"/>
+      <c r="K22" s="48" t="n"/>
+      <c r="L22" s="48" t="n"/>
+      <c r="M22" s="49" t="n"/>
+    </row>
+    <row r="23" ht="33" customHeight="1" s="39" thickBot="1">
+      <c r="A23" s="52" t="n"/>
       <c r="B23" s="57" t="inlineStr">
         <is>
           <t>低温贮存后</t>
         </is>
       </c>
-      <c r="C23" s="53" t="n"/>
-      <c r="D23" s="59" t="inlineStr">
+      <c r="C23" s="44" t="n"/>
+      <c r="D23" s="58" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="E23" s="52" t="n"/>
-      <c r="F23" s="53" t="n"/>
-      <c r="G23" s="59" t="inlineStr">
+      <c r="E23" s="36" t="n"/>
+      <c r="F23" s="44" t="n"/>
+      <c r="G23" s="58" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="H23" s="52" t="n"/>
-      <c r="I23" s="53" t="n"/>
-      <c r="J23" s="59" t="inlineStr">
+      <c r="H23" s="36" t="n"/>
+      <c r="I23" s="44" t="n"/>
+      <c r="J23" s="58" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="K23" s="52" t="n"/>
-      <c r="L23" s="52" t="n"/>
-      <c r="M23" s="53" t="n"/>
+      <c r="K23" s="36" t="n"/>
+      <c r="L23" s="36" t="n"/>
+      <c r="M23" s="44" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="61" t="inlineStr">
+      <c r="A24" s="35" t="inlineStr">
         <is>
           <t>备注：</t>
         </is>
       </c>
-      <c r="B24" s="52" t="n"/>
-      <c r="C24" s="52" t="n"/>
-      <c r="D24" s="52" t="n"/>
-      <c r="E24" s="52" t="n"/>
-      <c r="F24" s="52" t="n"/>
-      <c r="G24" s="52" t="n"/>
-      <c r="H24" s="52" t="n"/>
-      <c r="I24" s="52" t="n"/>
-      <c r="J24" s="52" t="n"/>
-      <c r="K24" s="52" t="n"/>
-      <c r="L24" s="52" t="n"/>
-      <c r="M24" s="62" t="n"/>
+      <c r="B24" s="36" t="n"/>
+      <c r="C24" s="36" t="n"/>
+      <c r="D24" s="36" t="n"/>
+      <c r="E24" s="36" t="n"/>
+      <c r="F24" s="36" t="n"/>
+      <c r="G24" s="36" t="n"/>
+      <c r="H24" s="36" t="n"/>
+      <c r="I24" s="36" t="n"/>
+      <c r="J24" s="36" t="n"/>
+      <c r="K24" s="36" t="n"/>
+      <c r="L24" s="36" t="n"/>
+      <c r="M24" s="37" t="n"/>
       <c r="N24" s="1" t="n"/>
       <c r="O24" s="1" t="n"/>
       <c r="P24" s="1" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="63" t="n"/>
-      <c r="M25" s="65" t="n"/>
+      <c r="A25" s="38" t="n"/>
+      <c r="M25" s="40" t="n"/>
       <c r="N25" s="1" t="n"/>
       <c r="O25" s="1" t="n"/>
       <c r="P25" s="1" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="63" t="n"/>
-      <c r="M26" s="65" t="n"/>
+      <c r="A26" s="38" t="n"/>
+      <c r="M26" s="40" t="n"/>
       <c r="N26" s="1" t="n"/>
       <c r="O26" s="1" t="n"/>
       <c r="P26" s="1" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="63" t="n"/>
-      <c r="M27" s="65" t="n"/>
+      <c r="A27" s="38" t="n"/>
+      <c r="M27" s="40" t="n"/>
       <c r="N27" s="1" t="n"/>
       <c r="O27" s="1" t="n"/>
       <c r="P27" s="1" t="n"/>
     </row>
-    <row r="28" ht="15" customHeight="1" s="64" thickBot="1">
-      <c r="A28" s="66" t="n"/>
-      <c r="B28" s="67" t="n"/>
-      <c r="C28" s="67" t="n"/>
-      <c r="D28" s="67" t="n"/>
-      <c r="E28" s="67" t="n"/>
-      <c r="F28" s="67" t="n"/>
-      <c r="G28" s="67" t="n"/>
-      <c r="H28" s="67" t="n"/>
-      <c r="I28" s="67" t="n"/>
-      <c r="J28" s="67" t="n"/>
-      <c r="K28" s="67" t="n"/>
-      <c r="L28" s="67" t="n"/>
-      <c r="M28" s="68" t="n"/>
+    <row r="28" ht="15" customHeight="1" s="39" thickBot="1">
+      <c r="A28" s="41" t="n"/>
+      <c r="B28" s="42" t="n"/>
+      <c r="C28" s="42" t="n"/>
+      <c r="D28" s="42" t="n"/>
+      <c r="E28" s="42" t="n"/>
+      <c r="F28" s="42" t="n"/>
+      <c r="G28" s="42" t="n"/>
+      <c r="H28" s="42" t="n"/>
+      <c r="I28" s="42" t="n"/>
+      <c r="J28" s="42" t="n"/>
+      <c r="K28" s="42" t="n"/>
+      <c r="L28" s="42" t="n"/>
+      <c r="M28" s="43" t="n"/>
       <c r="N28" s="1" t="n"/>
       <c r="O28" s="1" t="n"/>
       <c r="P28" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="A24:M28"/>
-    <mergeCell ref="G20:I21"/>
-    <mergeCell ref="J20:M21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J17:M18"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:J12"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:C22"/>
@@ -2070,37 +2088,19 @@
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A24:M28"/>
+    <mergeCell ref="G20:I21"/>
+    <mergeCell ref="J20:M21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J17:M18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
@@ -2121,229 +2121,229 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="10" customWidth="1" style="64" min="1" max="1"/>
-    <col width="10.21875" customWidth="1" style="64" min="4" max="4"/>
-    <col width="9.5546875" bestFit="1" customWidth="1" style="64" min="5" max="5"/>
-    <col width="5.6640625" customWidth="1" style="64" min="6" max="6"/>
-    <col width="15.21875" customWidth="1" style="64" min="7" max="7"/>
-    <col width="2.77734375" customWidth="1" style="64" min="10" max="10"/>
+    <col width="10" customWidth="1" style="39" min="1" max="1"/>
+    <col width="10.21875" customWidth="1" style="39" min="4" max="4"/>
+    <col width="9.5546875" bestFit="1" customWidth="1" style="39" min="5" max="5"/>
+    <col width="5.6640625" customWidth="1" style="39" min="6" max="6"/>
+    <col width="15.21875" customWidth="1" style="39" min="7" max="7"/>
+    <col width="2.77734375" customWidth="1" style="39" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.2" customHeight="1" s="64">
-      <c r="A1" s="79" t="inlineStr">
+    <row r="1" ht="34.2" customHeight="1" s="39">
+      <c r="A1" s="73" t="inlineStr">
         <is>
           <t>表1 外观检查记录表</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="28.8" customHeight="1" s="64">
-      <c r="A2" s="80" t="inlineStr">
+    <row r="2" ht="28.8" customHeight="1" s="39">
+      <c r="A2" s="74" t="inlineStr">
         <is>
           <t>检测项目</t>
         </is>
       </c>
-      <c r="B2" s="80" t="inlineStr">
+      <c r="B2" s="74" t="inlineStr">
         <is>
           <t>要求</t>
         </is>
       </c>
-      <c r="C2" s="76" t="n"/>
-      <c r="D2" s="76" t="n"/>
-      <c r="E2" s="76" t="n"/>
-      <c r="F2" s="77" t="n"/>
-      <c r="G2" s="80" t="inlineStr">
+      <c r="C2" s="75" t="n"/>
+      <c r="D2" s="75" t="n"/>
+      <c r="E2" s="75" t="n"/>
+      <c r="F2" s="76" t="n"/>
+      <c r="G2" s="74" t="inlineStr">
         <is>
           <t>实测</t>
         </is>
       </c>
-      <c r="H2" s="80" t="inlineStr">
+      <c r="H2" s="74" t="inlineStr">
         <is>
           <t>是否合格</t>
         </is>
       </c>
-      <c r="I2" s="76" t="n"/>
-      <c r="J2" s="77" t="n"/>
-    </row>
-    <row r="3" ht="49.8" customHeight="1" s="64">
-      <c r="A3" s="75" t="inlineStr">
+      <c r="I2" s="75" t="n"/>
+      <c r="J2" s="76" t="n"/>
+    </row>
+    <row r="3" ht="49.8" customHeight="1" s="39">
+      <c r="A3" s="77" t="inlineStr">
         <is>
           <t>最大外形尺寸</t>
         </is>
       </c>
-      <c r="B3" s="75" t="inlineStr">
+      <c r="B3" s="77" t="inlineStr">
         <is>
           <t>高×宽×深=4U×427×500(mm)，精度±10mm。</t>
         </is>
       </c>
-      <c r="C3" s="76" t="n"/>
-      <c r="D3" s="76" t="n"/>
-      <c r="E3" s="76" t="n"/>
-      <c r="F3" s="77" t="n"/>
+      <c r="C3" s="75" t="n"/>
+      <c r="D3" s="75" t="n"/>
+      <c r="E3" s="75" t="n"/>
+      <c r="F3" s="76" t="n"/>
       <c r="G3" s="19" t="inlineStr">
         <is>
           <t>177×428×503(mm)</t>
         </is>
       </c>
-      <c r="H3" s="75" t="inlineStr">
+      <c r="H3" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I3" s="76" t="n"/>
-      <c r="J3" s="77" t="n"/>
-    </row>
-    <row r="4" ht="23.4" customHeight="1" s="64">
-      <c r="A4" s="75" t="inlineStr">
+      <c r="I3" s="75" t="n"/>
+      <c r="J3" s="76" t="n"/>
+    </row>
+    <row r="4" ht="23.4" customHeight="1" s="39">
+      <c r="A4" s="77" t="inlineStr">
         <is>
           <t>整机重量</t>
         </is>
       </c>
-      <c r="B4" s="75" t="inlineStr">
+      <c r="B4" s="77" t="inlineStr">
         <is>
           <t>≤30Kg</t>
         </is>
       </c>
-      <c r="C4" s="76" t="n"/>
-      <c r="D4" s="76" t="n"/>
-      <c r="E4" s="76" t="n"/>
-      <c r="F4" s="77" t="n"/>
-      <c r="G4" s="75" t="inlineStr">
+      <c r="C4" s="75" t="n"/>
+      <c r="D4" s="75" t="n"/>
+      <c r="E4" s="75" t="n"/>
+      <c r="F4" s="76" t="n"/>
+      <c r="G4" s="77" t="inlineStr">
         <is>
           <t>25.2Kg</t>
         </is>
       </c>
-      <c r="H4" s="75" t="inlineStr">
+      <c r="H4" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I4" s="76" t="n"/>
-      <c r="J4" s="77" t="n"/>
-    </row>
-    <row r="5" ht="30" customHeight="1" s="64">
-      <c r="A5" s="75" t="inlineStr">
+      <c r="I4" s="75" t="n"/>
+      <c r="J4" s="76" t="n"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" s="39">
+      <c r="A5" s="77" t="inlineStr">
         <is>
           <t>外观油漆</t>
         </is>
       </c>
-      <c r="B5" s="75" t="inlineStr">
+      <c r="B5" s="77" t="inlineStr">
         <is>
           <t>外观颜色为黑色，涂漆均匀，无损伤，无划痕</t>
         </is>
       </c>
-      <c r="C5" s="76" t="n"/>
-      <c r="D5" s="76" t="n"/>
-      <c r="E5" s="76" t="n"/>
-      <c r="F5" s="77" t="n"/>
-      <c r="G5" s="75" t="inlineStr">
+      <c r="C5" s="75" t="n"/>
+      <c r="D5" s="75" t="n"/>
+      <c r="E5" s="75" t="n"/>
+      <c r="F5" s="76" t="n"/>
+      <c r="G5" s="77" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="H5" s="75" t="inlineStr">
+      <c r="H5" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I5" s="76" t="n"/>
-      <c r="J5" s="77" t="n"/>
-    </row>
-    <row r="6" ht="36" customHeight="1" s="64">
-      <c r="A6" s="75" t="inlineStr">
+      <c r="I5" s="75" t="n"/>
+      <c r="J5" s="76" t="n"/>
+    </row>
+    <row r="6" ht="36" customHeight="1" s="39">
+      <c r="A6" s="77" t="inlineStr">
         <is>
           <t>外观</t>
         </is>
       </c>
-      <c r="B6" s="75" t="inlineStr">
+      <c r="B6" s="77" t="inlineStr">
         <is>
           <t>外观整洁、各部件完好，标识正确、清晰；</t>
         </is>
       </c>
-      <c r="C6" s="76" t="n"/>
-      <c r="D6" s="76" t="n"/>
-      <c r="E6" s="76" t="n"/>
-      <c r="F6" s="77" t="n"/>
-      <c r="G6" s="75" t="inlineStr">
+      <c r="C6" s="75" t="n"/>
+      <c r="D6" s="75" t="n"/>
+      <c r="E6" s="75" t="n"/>
+      <c r="F6" s="76" t="n"/>
+      <c r="G6" s="77" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="H6" s="75" t="inlineStr">
+      <c r="H6" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I6" s="76" t="n"/>
-      <c r="J6" s="77" t="n"/>
-    </row>
-    <row r="7" ht="57" customHeight="1" s="64">
-      <c r="A7" s="75" t="inlineStr">
+      <c r="I6" s="75" t="n"/>
+      <c r="J6" s="76" t="n"/>
+    </row>
+    <row r="7" ht="57" customHeight="1" s="39">
+      <c r="A7" s="77" t="inlineStr">
         <is>
           <t>漆面</t>
         </is>
       </c>
-      <c r="B7" s="75" t="inlineStr">
+      <c r="B7" s="77" t="inlineStr">
         <is>
           <t>漆面光滑平整，无流痕、无颗粒、无划伤、涂敷均匀、无金属腐蚀、无漏喷，无明显的涂层脱落、划痕、变形、开裂、锈蚀或其它形式的损坏；</t>
         </is>
       </c>
-      <c r="C7" s="76" t="n"/>
-      <c r="D7" s="76" t="n"/>
-      <c r="E7" s="76" t="n"/>
-      <c r="F7" s="77" t="n"/>
-      <c r="G7" s="75" t="inlineStr">
+      <c r="C7" s="75" t="n"/>
+      <c r="D7" s="75" t="n"/>
+      <c r="E7" s="75" t="n"/>
+      <c r="F7" s="76" t="n"/>
+      <c r="G7" s="77" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="H7" s="75" t="inlineStr">
+      <c r="H7" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I7" s="76" t="n"/>
-      <c r="J7" s="77" t="n"/>
-    </row>
-    <row r="8" ht="54.6" customHeight="1" s="64">
-      <c r="A8" s="75" t="inlineStr">
+      <c r="I7" s="75" t="n"/>
+      <c r="J7" s="76" t="n"/>
+    </row>
+    <row r="8" ht="54.6" customHeight="1" s="39">
+      <c r="A8" s="77" t="inlineStr">
         <is>
           <t>连接器</t>
         </is>
       </c>
-      <c r="B8" s="75" t="inlineStr">
+      <c r="B8" s="77" t="inlineStr">
         <is>
           <t>电气连接器拧紧、到位；机箱内部电缆捆扎牢靠、整齐美观；电缆标识清晰、准确，检查结果符合电缆装配图的要求。</t>
         </is>
       </c>
-      <c r="C8" s="76" t="n"/>
-      <c r="D8" s="76" t="n"/>
-      <c r="E8" s="76" t="n"/>
-      <c r="F8" s="77" t="n"/>
-      <c r="G8" s="75" t="inlineStr">
+      <c r="C8" s="75" t="n"/>
+      <c r="D8" s="75" t="n"/>
+      <c r="E8" s="75" t="n"/>
+      <c r="F8" s="76" t="n"/>
+      <c r="G8" s="77" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="H8" s="75" t="inlineStr">
+      <c r="H8" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I8" s="76" t="n"/>
-      <c r="J8" s="77" t="n"/>
-    </row>
-    <row r="9" ht="28.8" customHeight="1" s="64">
+      <c r="I8" s="75" t="n"/>
+      <c r="J8" s="76" t="n"/>
+    </row>
+    <row r="9" ht="28.8" customHeight="1" s="39">
       <c r="A9" s="20" t="inlineStr">
         <is>
           <t>测试人员：</t>
         </is>
       </c>
-      <c r="B9" s="73" t="inlineStr">
+      <c r="B9" s="78" t="inlineStr">
         <is>
           <t>解梦迪</t>
         </is>
       </c>
-      <c r="C9" s="74" t="n"/>
+      <c r="C9" s="79" t="n"/>
       <c r="D9" s="21" t="inlineStr">
         <is>
           <t>测试时间:</t>
@@ -2351,26 +2351,21 @@
       </c>
       <c r="E9" s="108" t="inlineStr">
         <is>
-          <t>2019/12/22</t>
-        </is>
-      </c>
-      <c r="F9" s="74" t="n"/>
-      <c r="G9" s="73" t="inlineStr">
+          <t>2019/12/24</t>
+        </is>
+      </c>
+      <c r="F9" s="79" t="n"/>
+      <c r="G9" s="78" t="inlineStr">
         <is>
           <t>是否合格：合格（√）不合格</t>
         </is>
       </c>
-      <c r="H9" s="74" t="n"/>
-      <c r="I9" s="74" t="n"/>
-      <c r="J9" s="74" t="n"/>
+      <c r="H9" s="79" t="n"/>
+      <c r="I9" s="79" t="n"/>
+      <c r="J9" s="79" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B2:F2"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="H3:J3"/>
@@ -2384,6 +2379,11 @@
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
@@ -2404,97 +2404,97 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.77734375" customWidth="1" style="64" min="3" max="3"/>
-    <col width="5.77734375" customWidth="1" style="64" min="4" max="4"/>
-    <col width="22.77734375" customWidth="1" style="64" min="5" max="5"/>
-    <col width="12.77734375" customWidth="1" style="64" min="6" max="6"/>
-    <col width="5.88671875" customWidth="1" style="64" min="7" max="7"/>
-    <col width="10.33203125" customWidth="1" style="64" min="9" max="9"/>
+    <col width="4.77734375" customWidth="1" style="39" min="3" max="3"/>
+    <col width="5.77734375" customWidth="1" style="39" min="4" max="4"/>
+    <col width="22.77734375" customWidth="1" style="39" min="5" max="5"/>
+    <col width="12.77734375" customWidth="1" style="39" min="6" max="6"/>
+    <col width="5.88671875" customWidth="1" style="39" min="7" max="7"/>
+    <col width="10.33203125" customWidth="1" style="39" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.4" customHeight="1" s="64">
-      <c r="A1" s="81" t="inlineStr">
+    <row r="1" ht="32.4" customHeight="1" s="39">
+      <c r="A1" s="83" t="inlineStr">
         <is>
           <t>表2    611-2A指令输出功能测试表</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.6" customHeight="1" s="64">
-      <c r="A2" s="86" t="inlineStr">
+    <row r="2" ht="15.6" customHeight="1" s="39">
+      <c r="A2" s="88" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B2" s="88" t="inlineStr">
+      <c r="B2" s="90" t="inlineStr">
         <is>
           <t>继电器闭合</t>
         </is>
       </c>
-      <c r="C2" s="76" t="n"/>
-      <c r="D2" s="77" t="n"/>
-      <c r="E2" s="86" t="inlineStr">
+      <c r="C2" s="75" t="n"/>
+      <c r="D2" s="76" t="n"/>
+      <c r="E2" s="88" t="inlineStr">
         <is>
           <t>信号名称</t>
         </is>
       </c>
-      <c r="F2" s="86" t="inlineStr">
+      <c r="F2" s="88" t="inlineStr">
         <is>
           <t>信号性质</t>
         </is>
       </c>
-      <c r="G2" s="86" t="inlineStr">
+      <c r="G2" s="88" t="inlineStr">
         <is>
           <t>节点</t>
         </is>
       </c>
-      <c r="H2" s="82" t="inlineStr">
+      <c r="H2" s="84" t="inlineStr">
         <is>
           <t>合格
 是（√）否（×）</t>
         </is>
       </c>
-      <c r="I2" s="83" t="n"/>
+      <c r="I2" s="85" t="n"/>
       <c r="J2" s="2" t="n"/>
     </row>
-    <row r="3" ht="15.6" customHeight="1" s="64">
-      <c r="A3" s="87" t="n"/>
-      <c r="B3" s="88" t="inlineStr">
+    <row r="3" ht="15.6" customHeight="1" s="39">
+      <c r="A3" s="89" t="n"/>
+      <c r="B3" s="90" t="inlineStr">
         <is>
           <t>板卡</t>
         </is>
       </c>
-      <c r="C3" s="88" t="inlineStr">
+      <c r="C3" s="90" t="inlineStr">
         <is>
           <t>组</t>
         </is>
       </c>
-      <c r="D3" s="88" t="inlineStr">
+      <c r="D3" s="90" t="inlineStr">
         <is>
           <t>路</t>
         </is>
       </c>
-      <c r="E3" s="87" t="n"/>
-      <c r="F3" s="87" t="n"/>
-      <c r="G3" s="87" t="n"/>
-      <c r="H3" s="84" t="n"/>
-      <c r="I3" s="85" t="n"/>
+      <c r="E3" s="89" t="n"/>
+      <c r="F3" s="89" t="n"/>
+      <c r="G3" s="89" t="n"/>
+      <c r="H3" s="86" t="n"/>
+      <c r="I3" s="87" t="n"/>
       <c r="J3" s="2" t="n"/>
     </row>
-    <row r="4" ht="19.2" customHeight="1" s="64">
+    <row r="4" ht="19.2" customHeight="1" s="39">
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">1 </t>
         </is>
       </c>
-      <c r="B4" s="91" t="inlineStr">
+      <c r="B4" s="93" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C4" s="91" t="n">
+      <c r="C4" s="93" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="91" t="n">
+      <c r="D4" s="93" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -2510,28 +2510,28 @@
       <c r="G4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="75" t="inlineStr">
+      <c r="H4" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I4" s="77" t="n"/>
-    </row>
-    <row r="5" ht="43.8" customHeight="1" s="64">
+      <c r="I4" s="76" t="n"/>
+    </row>
+    <row r="5" ht="43.8" customHeight="1" s="39">
       <c r="A5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2 </t>
         </is>
       </c>
-      <c r="B5" s="92" t="inlineStr">
+      <c r="B5" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C5" s="91" t="n">
+      <c r="C5" s="93" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="91" t="n">
+      <c r="D5" s="93" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -2547,28 +2547,28 @@
       <c r="G5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="75" t="inlineStr">
+      <c r="H5" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I5" s="77" t="n"/>
-    </row>
-    <row r="6" ht="15.6" customHeight="1" s="64">
+      <c r="I5" s="76" t="n"/>
+    </row>
+    <row r="6" ht="15.6" customHeight="1" s="39">
       <c r="A6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">3 </t>
         </is>
       </c>
-      <c r="B6" s="92" t="inlineStr">
+      <c r="B6" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C6" s="91" t="n">
+      <c r="C6" s="93" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="91" t="n">
+      <c r="D6" s="93" t="n">
         <v>2</v>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -2584,28 +2584,28 @@
       <c r="G6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="75" t="inlineStr">
+      <c r="H6" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I6" s="77" t="n"/>
-    </row>
-    <row r="7" ht="15.6" customHeight="1" s="64">
+      <c r="I6" s="76" t="n"/>
+    </row>
+    <row r="7" ht="15.6" customHeight="1" s="39">
       <c r="A7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">4 </t>
         </is>
       </c>
-      <c r="B7" s="92" t="inlineStr">
+      <c r="B7" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C7" s="91" t="n">
+      <c r="C7" s="93" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="91" t="n">
+      <c r="D7" s="93" t="n">
         <v>3</v>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -2621,28 +2621,28 @@
       <c r="G7" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="H7" s="75" t="inlineStr">
+      <c r="H7" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I7" s="77" t="n"/>
-    </row>
-    <row r="8" ht="15.6" customHeight="1" s="64">
+      <c r="I7" s="76" t="n"/>
+    </row>
+    <row r="8" ht="15.6" customHeight="1" s="39">
       <c r="A8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">5 </t>
         </is>
       </c>
-      <c r="B8" s="92" t="inlineStr">
+      <c r="B8" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C8" s="91" t="n">
+      <c r="C8" s="93" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="91" t="n">
+      <c r="D8" s="93" t="n">
         <v>4</v>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -2658,28 +2658,28 @@
       <c r="G8" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="H8" s="75" t="inlineStr">
+      <c r="H8" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I8" s="77" t="n"/>
-    </row>
-    <row r="9" ht="15.6" customHeight="1" s="64">
+      <c r="I8" s="76" t="n"/>
+    </row>
+    <row r="9" ht="15.6" customHeight="1" s="39">
       <c r="A9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">6 </t>
         </is>
       </c>
-      <c r="B9" s="92" t="inlineStr">
+      <c r="B9" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C9" s="91" t="n">
+      <c r="C9" s="93" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="91" t="n">
+      <c r="D9" s="93" t="n">
         <v>5</v>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -2695,28 +2695,28 @@
       <c r="G9" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="H9" s="75" t="inlineStr">
+      <c r="H9" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I9" s="77" t="n"/>
-    </row>
-    <row r="10" ht="15.6" customHeight="1" s="64">
+      <c r="I9" s="76" t="n"/>
+    </row>
+    <row r="10" ht="15.6" customHeight="1" s="39">
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">7 </t>
         </is>
       </c>
-      <c r="B10" s="92" t="inlineStr">
+      <c r="B10" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C10" s="91" t="n">
+      <c r="C10" s="93" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="91" t="n">
+      <c r="D10" s="93" t="n">
         <v>6</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -2732,28 +2732,28 @@
       <c r="G10" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="H10" s="75" t="inlineStr">
+      <c r="H10" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I10" s="77" t="n"/>
-    </row>
-    <row r="11" ht="15.6" customHeight="1" s="64">
+      <c r="I10" s="76" t="n"/>
+    </row>
+    <row r="11" ht="15.6" customHeight="1" s="39">
       <c r="A11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">8 </t>
         </is>
       </c>
-      <c r="B11" s="92" t="inlineStr">
+      <c r="B11" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C11" s="91" t="n">
+      <c r="C11" s="93" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="91" t="n">
+      <c r="D11" s="93" t="n">
         <v>7</v>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -2769,28 +2769,28 @@
       <c r="G11" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="H11" s="75" t="inlineStr">
+      <c r="H11" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I11" s="77" t="n"/>
-    </row>
-    <row r="12" ht="15.6" customHeight="1" s="64">
+      <c r="I11" s="76" t="n"/>
+    </row>
+    <row r="12" ht="15.6" customHeight="1" s="39">
       <c r="A12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">9 </t>
         </is>
       </c>
-      <c r="B12" s="92" t="inlineStr">
+      <c r="B12" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C12" s="91" t="n">
+      <c r="C12" s="93" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="91" t="n">
+      <c r="D12" s="93" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -2806,28 +2806,28 @@
       <c r="G12" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="H12" s="75" t="inlineStr">
+      <c r="H12" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I12" s="77" t="n"/>
-    </row>
-    <row r="13" ht="15.6" customHeight="1" s="64">
+      <c r="I12" s="76" t="n"/>
+    </row>
+    <row r="13" ht="15.6" customHeight="1" s="39">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10 </t>
         </is>
       </c>
-      <c r="B13" s="92" t="inlineStr">
+      <c r="B13" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C13" s="92" t="n">
+      <c r="C13" s="94" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="91" t="n">
+      <c r="D13" s="93" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -2843,28 +2843,28 @@
       <c r="G13" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="H13" s="75" t="inlineStr">
+      <c r="H13" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I13" s="77" t="n"/>
-    </row>
-    <row r="14" ht="15.6" customHeight="1" s="64">
+      <c r="I13" s="76" t="n"/>
+    </row>
+    <row r="14" ht="15.6" customHeight="1" s="39">
       <c r="A14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">11 </t>
         </is>
       </c>
-      <c r="B14" s="92" t="inlineStr">
+      <c r="B14" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C14" s="92" t="n">
+      <c r="C14" s="94" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="91" t="n">
+      <c r="D14" s="93" t="n">
         <v>2</v>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -2880,28 +2880,28 @@
       <c r="G14" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="H14" s="75" t="inlineStr">
+      <c r="H14" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I14" s="77" t="n"/>
-    </row>
-    <row r="15" ht="15.6" customHeight="1" s="64">
+      <c r="I14" s="76" t="n"/>
+    </row>
+    <row r="15" ht="15.6" customHeight="1" s="39">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">12 </t>
         </is>
       </c>
-      <c r="B15" s="92" t="inlineStr">
+      <c r="B15" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C15" s="92" t="n">
+      <c r="C15" s="94" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="91" t="n">
+      <c r="D15" s="93" t="n">
         <v>3</v>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -2917,28 +2917,28 @@
       <c r="G15" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="H15" s="75" t="inlineStr">
+      <c r="H15" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I15" s="77" t="n"/>
-    </row>
-    <row r="16" ht="15.6" customHeight="1" s="64">
+      <c r="I15" s="76" t="n"/>
+    </row>
+    <row r="16" ht="15.6" customHeight="1" s="39">
       <c r="A16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">13 </t>
         </is>
       </c>
-      <c r="B16" s="92" t="inlineStr">
+      <c r="B16" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C16" s="92" t="n">
+      <c r="C16" s="94" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="91" t="n">
+      <c r="D16" s="93" t="n">
         <v>4</v>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -2954,28 +2954,28 @@
       <c r="G16" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="H16" s="75" t="inlineStr">
+      <c r="H16" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I16" s="77" t="n"/>
-    </row>
-    <row r="17" ht="15.6" customHeight="1" s="64">
+      <c r="I16" s="76" t="n"/>
+    </row>
+    <row r="17" ht="15.6" customHeight="1" s="39">
       <c r="A17" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">14 </t>
         </is>
       </c>
-      <c r="B17" s="92" t="inlineStr">
+      <c r="B17" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C17" s="92" t="n">
+      <c r="C17" s="94" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="91" t="n">
+      <c r="D17" s="93" t="n">
         <v>5</v>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -2991,28 +2991,28 @@
       <c r="G17" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="H17" s="75" t="inlineStr">
+      <c r="H17" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I17" s="77" t="n"/>
-    </row>
-    <row r="18" ht="15.6" customHeight="1" s="64">
+      <c r="I17" s="76" t="n"/>
+    </row>
+    <row r="18" ht="15.6" customHeight="1" s="39">
       <c r="A18" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">15 </t>
         </is>
       </c>
-      <c r="B18" s="92" t="inlineStr">
+      <c r="B18" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C18" s="92" t="n">
+      <c r="C18" s="94" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="91" t="n">
+      <c r="D18" s="93" t="n">
         <v>6</v>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -3028,28 +3028,28 @@
       <c r="G18" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="H18" s="75" t="inlineStr">
+      <c r="H18" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I18" s="77" t="n"/>
-    </row>
-    <row r="19" ht="15.6" customHeight="1" s="64">
+      <c r="I18" s="76" t="n"/>
+    </row>
+    <row r="19" ht="15.6" customHeight="1" s="39">
       <c r="A19" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">16 </t>
         </is>
       </c>
-      <c r="B19" s="92" t="inlineStr">
+      <c r="B19" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C19" s="92" t="n">
+      <c r="C19" s="94" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="91" t="n">
+      <c r="D19" s="93" t="n">
         <v>7</v>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -3065,28 +3065,28 @@
       <c r="G19" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="H19" s="75" t="inlineStr">
+      <c r="H19" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I19" s="77" t="n"/>
-    </row>
-    <row r="20" ht="15.6" customHeight="1" s="64">
+      <c r="I19" s="76" t="n"/>
+    </row>
+    <row r="20" ht="15.6" customHeight="1" s="39">
       <c r="A20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">17 </t>
         </is>
       </c>
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C20" s="92" t="n">
+      <c r="C20" s="94" t="n">
         <v>2</v>
       </c>
-      <c r="D20" s="91" t="n">
+      <c r="D20" s="93" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -3102,28 +3102,28 @@
       <c r="G20" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="H20" s="75" t="inlineStr">
+      <c r="H20" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I20" s="77" t="n"/>
-    </row>
-    <row r="21" ht="15.6" customHeight="1" s="64">
+      <c r="I20" s="76" t="n"/>
+    </row>
+    <row r="21" ht="15.6" customHeight="1" s="39">
       <c r="A21" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">18 </t>
         </is>
       </c>
-      <c r="B21" s="92" t="inlineStr">
+      <c r="B21" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C21" s="92" t="n">
+      <c r="C21" s="94" t="n">
         <v>2</v>
       </c>
-      <c r="D21" s="91" t="n">
+      <c r="D21" s="93" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -3139,28 +3139,28 @@
       <c r="G21" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="H21" s="75" t="inlineStr">
+      <c r="H21" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I21" s="77" t="n"/>
-    </row>
-    <row r="22" ht="15.6" customHeight="1" s="64">
+      <c r="I21" s="76" t="n"/>
+    </row>
+    <row r="22" ht="15.6" customHeight="1" s="39">
       <c r="A22" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">19 </t>
         </is>
       </c>
-      <c r="B22" s="92" t="inlineStr">
+      <c r="B22" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C22" s="92" t="n">
+      <c r="C22" s="94" t="n">
         <v>2</v>
       </c>
-      <c r="D22" s="91" t="n">
+      <c r="D22" s="93" t="n">
         <v>2</v>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -3176,28 +3176,28 @@
       <c r="G22" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="H22" s="75" t="inlineStr">
+      <c r="H22" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I22" s="77" t="n"/>
-    </row>
-    <row r="23" ht="15.6" customHeight="1" s="64">
+      <c r="I22" s="76" t="n"/>
+    </row>
+    <row r="23" ht="15.6" customHeight="1" s="39">
       <c r="A23" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">20 </t>
         </is>
       </c>
-      <c r="B23" s="92" t="inlineStr">
+      <c r="B23" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C23" s="92" t="n">
+      <c r="C23" s="94" t="n">
         <v>2</v>
       </c>
-      <c r="D23" s="91" t="n">
+      <c r="D23" s="93" t="n">
         <v>3</v>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -3213,28 +3213,28 @@
       <c r="G23" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="H23" s="75" t="inlineStr">
+      <c r="H23" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I23" s="77" t="n"/>
-    </row>
-    <row r="24" ht="15.6" customHeight="1" s="64">
+      <c r="I23" s="76" t="n"/>
+    </row>
+    <row r="24" ht="15.6" customHeight="1" s="39">
       <c r="A24" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">21 </t>
         </is>
       </c>
-      <c r="B24" s="92" t="inlineStr">
+      <c r="B24" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C24" s="92" t="n">
+      <c r="C24" s="94" t="n">
         <v>2</v>
       </c>
-      <c r="D24" s="91" t="n">
+      <c r="D24" s="93" t="n">
         <v>4</v>
       </c>
       <c r="E24" s="4" t="inlineStr">
@@ -3250,28 +3250,28 @@
       <c r="G24" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="H24" s="75" t="inlineStr">
+      <c r="H24" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I24" s="77" t="n"/>
-    </row>
-    <row r="25" ht="15.6" customHeight="1" s="64">
+      <c r="I24" s="76" t="n"/>
+    </row>
+    <row r="25" ht="15.6" customHeight="1" s="39">
       <c r="A25" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">22 </t>
         </is>
       </c>
-      <c r="B25" s="92" t="inlineStr">
+      <c r="B25" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C25" s="92" t="n">
+      <c r="C25" s="94" t="n">
         <v>2</v>
       </c>
-      <c r="D25" s="91" t="n">
+      <c r="D25" s="93" t="n">
         <v>5</v>
       </c>
       <c r="E25" s="4" t="inlineStr">
@@ -3287,25 +3287,25 @@
       <c r="G25" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="H25" s="75" t="inlineStr">
+      <c r="H25" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I25" s="77" t="n"/>
-    </row>
-    <row r="26" ht="15.6" customHeight="1" s="64">
+      <c r="I25" s="76" t="n"/>
+    </row>
+    <row r="26" ht="15.6" customHeight="1" s="39">
       <c r="A26" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">23 </t>
         </is>
       </c>
-      <c r="B26" s="92" t="inlineStr">
+      <c r="B26" s="94" t="inlineStr">
         <is>
           <t>AIO</t>
         </is>
       </c>
-      <c r="C26" s="92" t="n">
+      <c r="C26" s="94" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="6" t="inlineStr">
@@ -3326,28 +3326,28 @@
       <c r="G26" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="H26" s="75" t="inlineStr">
+      <c r="H26" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I26" s="77" t="n"/>
-    </row>
-    <row r="27" ht="15.6" customHeight="1" s="64">
+      <c r="I26" s="76" t="n"/>
+    </row>
+    <row r="27" ht="15.6" customHeight="1" s="39">
       <c r="A27" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">24 </t>
         </is>
       </c>
-      <c r="B27" s="92" t="inlineStr">
+      <c r="B27" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C27" s="92" t="n">
+      <c r="C27" s="94" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="91" t="n">
+      <c r="D27" s="93" t="n">
         <v>7</v>
       </c>
       <c r="E27" s="4" t="inlineStr">
@@ -3363,28 +3363,28 @@
       <c r="G27" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="H27" s="75" t="inlineStr">
+      <c r="H27" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I27" s="77" t="n"/>
-    </row>
-    <row r="28" ht="15.6" customHeight="1" s="64">
+      <c r="I27" s="76" t="n"/>
+    </row>
+    <row r="28" ht="15.6" customHeight="1" s="39">
       <c r="A28" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">25 </t>
         </is>
       </c>
-      <c r="B28" s="92" t="inlineStr">
+      <c r="B28" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C28" s="92" t="n">
+      <c r="C28" s="94" t="n">
         <v>3</v>
       </c>
-      <c r="D28" s="91" t="n">
+      <c r="D28" s="93" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="4" t="inlineStr">
@@ -3400,25 +3400,25 @@
       <c r="G28" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="H28" s="75" t="inlineStr">
+      <c r="H28" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I28" s="77" t="n"/>
-    </row>
-    <row r="29" ht="15.6" customHeight="1" s="64">
+      <c r="I28" s="76" t="n"/>
+    </row>
+    <row r="29" ht="15.6" customHeight="1" s="39">
       <c r="A29" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">26 </t>
         </is>
       </c>
-      <c r="B29" s="92" t="inlineStr">
+      <c r="B29" s="94" t="inlineStr">
         <is>
           <t>AIO</t>
         </is>
       </c>
-      <c r="C29" s="92" t="n">
+      <c r="C29" s="94" t="n">
         <v>0</v>
       </c>
       <c r="D29" s="6" t="inlineStr">
@@ -3439,28 +3439,28 @@
       <c r="G29" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="H29" s="75" t="inlineStr">
+      <c r="H29" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I29" s="77" t="n"/>
-    </row>
-    <row r="30" ht="15.6" customHeight="1" s="64">
+      <c r="I29" s="76" t="n"/>
+    </row>
+    <row r="30" ht="15.6" customHeight="1" s="39">
       <c r="A30" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">27 </t>
         </is>
       </c>
-      <c r="B30" s="92" t="inlineStr">
+      <c r="B30" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C30" s="92" t="n">
+      <c r="C30" s="94" t="n">
         <v>3</v>
       </c>
-      <c r="D30" s="91" t="n">
+      <c r="D30" s="93" t="n">
         <v>2</v>
       </c>
       <c r="E30" s="4" t="inlineStr">
@@ -3476,28 +3476,28 @@
       <c r="G30" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="H30" s="75" t="inlineStr">
+      <c r="H30" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I30" s="77" t="n"/>
-    </row>
-    <row r="31" ht="15.6" customHeight="1" s="64">
+      <c r="I30" s="76" t="n"/>
+    </row>
+    <row r="31" ht="15.6" customHeight="1" s="39">
       <c r="A31" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">28 </t>
         </is>
       </c>
-      <c r="B31" s="92" t="inlineStr">
+      <c r="B31" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C31" s="92" t="n">
+      <c r="C31" s="94" t="n">
         <v>3</v>
       </c>
-      <c r="D31" s="91" t="n">
+      <c r="D31" s="93" t="n">
         <v>3</v>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -3513,28 +3513,28 @@
       <c r="G31" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="H31" s="75" t="inlineStr">
+      <c r="H31" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I31" s="77" t="n"/>
-    </row>
-    <row r="32" ht="15.6" customHeight="1" s="64">
+      <c r="I31" s="76" t="n"/>
+    </row>
+    <row r="32" ht="15.6" customHeight="1" s="39">
       <c r="A32" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">29 </t>
         </is>
       </c>
-      <c r="B32" s="92" t="inlineStr">
+      <c r="B32" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C32" s="92" t="n">
+      <c r="C32" s="94" t="n">
         <v>3</v>
       </c>
-      <c r="D32" s="91" t="n">
+      <c r="D32" s="93" t="n">
         <v>4</v>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -3550,28 +3550,28 @@
       <c r="G32" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="H32" s="75" t="inlineStr">
+      <c r="H32" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I32" s="77" t="n"/>
-    </row>
-    <row r="33" ht="15.6" customHeight="1" s="64">
+      <c r="I32" s="76" t="n"/>
+    </row>
+    <row r="33" ht="15.6" customHeight="1" s="39">
       <c r="A33" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">30 </t>
         </is>
       </c>
-      <c r="B33" s="92" t="inlineStr">
+      <c r="B33" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C33" s="92" t="n">
+      <c r="C33" s="94" t="n">
         <v>3</v>
       </c>
-      <c r="D33" s="91" t="n">
+      <c r="D33" s="93" t="n">
         <v>5</v>
       </c>
       <c r="E33" s="4" t="inlineStr">
@@ -3587,28 +3587,28 @@
       <c r="G33" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="H33" s="75" t="inlineStr">
+      <c r="H33" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I33" s="77" t="n"/>
-    </row>
-    <row r="34" ht="15.6" customHeight="1" s="64">
+      <c r="I33" s="76" t="n"/>
+    </row>
+    <row r="34" ht="15.6" customHeight="1" s="39">
       <c r="A34" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">31 </t>
         </is>
       </c>
-      <c r="B34" s="92" t="inlineStr">
+      <c r="B34" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C34" s="92" t="n">
+      <c r="C34" s="94" t="n">
         <v>3</v>
       </c>
-      <c r="D34" s="91" t="n">
+      <c r="D34" s="93" t="n">
         <v>6</v>
       </c>
       <c r="E34" s="4" t="inlineStr">
@@ -3624,28 +3624,28 @@
       <c r="G34" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="H34" s="75" t="inlineStr">
+      <c r="H34" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I34" s="77" t="n"/>
-    </row>
-    <row r="35" ht="15.6" customHeight="1" s="64">
+      <c r="I34" s="76" t="n"/>
+    </row>
+    <row r="35" ht="15.6" customHeight="1" s="39">
       <c r="A35" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">32 </t>
         </is>
       </c>
-      <c r="B35" s="92" t="inlineStr">
+      <c r="B35" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C35" s="92" t="n">
+      <c r="C35" s="94" t="n">
         <v>3</v>
       </c>
-      <c r="D35" s="91" t="n">
+      <c r="D35" s="93" t="n">
         <v>7</v>
       </c>
       <c r="E35" s="4" t="inlineStr">
@@ -3661,26 +3661,26 @@
       <c r="G35" s="5" t="n">
         <v>67</v>
       </c>
-      <c r="H35" s="75" t="inlineStr">
+      <c r="H35" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I35" s="77" t="n"/>
-    </row>
-    <row r="36" ht="15.6" customHeight="1" s="64">
+      <c r="I35" s="76" t="n"/>
+    </row>
+    <row r="36" ht="15.6" customHeight="1" s="39">
       <c r="A36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">33 </t>
         </is>
       </c>
-      <c r="B36" s="92" t="inlineStr">
+      <c r="B36" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C36" s="91" t="n"/>
-      <c r="D36" s="91" t="n"/>
+      <c r="C36" s="93" t="n"/>
+      <c r="D36" s="93" t="n"/>
       <c r="E36" s="4" t="inlineStr">
         <is>
           <t>公共端</t>
@@ -3696,22 +3696,22 @@
           <t>70-77</t>
         </is>
       </c>
-      <c r="H36" s="75" t="n"/>
-      <c r="I36" s="77" t="n"/>
-    </row>
-    <row r="37" ht="15.6" customHeight="1" s="64">
+      <c r="H36" s="77" t="n"/>
+      <c r="I36" s="76" t="n"/>
+    </row>
+    <row r="37" ht="15.6" customHeight="1" s="39">
       <c r="A37" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">34 </t>
         </is>
       </c>
-      <c r="B37" s="92" t="inlineStr">
+      <c r="B37" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C37" s="91" t="n"/>
-      <c r="D37" s="91" t="n"/>
+      <c r="C37" s="93" t="n"/>
+      <c r="D37" s="93" t="n"/>
       <c r="E37" s="4" t="inlineStr">
         <is>
           <t>壳</t>
@@ -3725,22 +3725,22 @@
       <c r="G37" s="5" t="n">
         <v>78</v>
       </c>
-      <c r="H37" s="75" t="n"/>
-      <c r="I37" s="77" t="n"/>
+      <c r="H37" s="77" t="n"/>
+      <c r="I37" s="76" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="90" t="inlineStr">
+      <c r="A38" s="82" t="inlineStr">
         <is>
           <t>测试人员：</t>
         </is>
       </c>
-      <c r="B38" s="74" t="n"/>
-      <c r="C38" s="89" t="inlineStr">
+      <c r="B38" s="79" t="n"/>
+      <c r="C38" s="81" t="inlineStr">
         <is>
           <t>解梦迪</t>
         </is>
       </c>
-      <c r="D38" s="74" t="n"/>
+      <c r="D38" s="79" t="n"/>
       <c r="E38" s="22" t="inlineStr">
         <is>
           <t>测试时间:</t>
@@ -3748,29 +3748,41 @@
       </c>
       <c r="F38" s="109" t="inlineStr">
         <is>
-          <t>2019/12/22</t>
-        </is>
-      </c>
-      <c r="G38" s="73" t="inlineStr">
+          <t>2019/12/24</t>
+        </is>
+      </c>
+      <c r="G38" s="78" t="inlineStr">
         <is>
           <t>是否合格：合格（√）不合格</t>
         </is>
       </c>
-      <c r="H38" s="74" t="n"/>
-      <c r="I38" s="74" t="n"/>
+      <c r="H38" s="79" t="n"/>
+      <c r="I38" s="79" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
@@ -3783,28 +3795,16 @@
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="G38:I38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
@@ -3825,90 +3825,90 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="5.5546875" customWidth="1" style="64" min="3" max="3"/>
-    <col width="6.44140625" customWidth="1" style="64" min="4" max="4"/>
-    <col width="20.88671875" customWidth="1" style="64" min="5" max="5"/>
-    <col width="13.33203125" customWidth="1" style="64" min="6" max="6"/>
-    <col width="5.44140625" customWidth="1" style="64" min="7" max="7"/>
-    <col width="19.88671875" customWidth="1" style="64" min="8" max="8"/>
+    <col width="5.5546875" customWidth="1" style="39" min="3" max="3"/>
+    <col width="6.44140625" customWidth="1" style="39" min="4" max="4"/>
+    <col width="20.88671875" customWidth="1" style="39" min="5" max="5"/>
+    <col width="13.33203125" customWidth="1" style="39" min="6" max="6"/>
+    <col width="5.44140625" customWidth="1" style="39" min="7" max="7"/>
+    <col width="19.88671875" customWidth="1" style="39" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.8" customHeight="1" s="64">
-      <c r="A1" s="81" t="inlineStr">
+    <row r="1" ht="31.8" customHeight="1" s="39">
+      <c r="A1" s="83" t="inlineStr">
         <is>
           <t>表3   611-2B指令输入功能测试表</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="16.2" customHeight="1" s="64">
-      <c r="A2" s="86" t="inlineStr">
+    <row r="2" ht="16.2" customHeight="1" s="39">
+      <c r="A2" s="88" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B2" s="88" t="inlineStr">
+      <c r="B2" s="90" t="inlineStr">
         <is>
           <t>通道采集</t>
         </is>
       </c>
-      <c r="C2" s="76" t="n"/>
-      <c r="D2" s="77" t="n"/>
-      <c r="E2" s="86" t="inlineStr">
+      <c r="C2" s="75" t="n"/>
+      <c r="D2" s="76" t="n"/>
+      <c r="E2" s="88" t="inlineStr">
         <is>
           <t>信号名称</t>
         </is>
       </c>
-      <c r="F2" s="86" t="inlineStr">
+      <c r="F2" s="88" t="inlineStr">
         <is>
           <t>信号性质</t>
         </is>
       </c>
-      <c r="G2" s="86" t="inlineStr">
+      <c r="G2" s="88" t="inlineStr">
         <is>
           <t>节点</t>
         </is>
       </c>
-      <c r="H2" s="82" t="inlineStr">
+      <c r="H2" s="84" t="inlineStr">
         <is>
           <t>合格</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.6" customHeight="1" s="64">
-      <c r="A3" s="87" t="n"/>
-      <c r="B3" s="88" t="inlineStr">
+    <row r="3" ht="15.6" customHeight="1" s="39">
+      <c r="A3" s="89" t="n"/>
+      <c r="B3" s="90" t="inlineStr">
         <is>
           <t>板卡</t>
         </is>
       </c>
-      <c r="C3" s="88" t="inlineStr">
+      <c r="C3" s="90" t="inlineStr">
         <is>
           <t>组</t>
         </is>
       </c>
-      <c r="D3" s="88" t="inlineStr">
+      <c r="D3" s="90" t="inlineStr">
         <is>
           <t>路</t>
         </is>
       </c>
-      <c r="E3" s="87" t="n"/>
-      <c r="F3" s="87" t="n"/>
-      <c r="G3" s="87" t="n"/>
-      <c r="H3" s="87" t="n"/>
-    </row>
-    <row r="4" ht="21" customHeight="1" s="64">
+      <c r="E3" s="89" t="n"/>
+      <c r="F3" s="89" t="n"/>
+      <c r="G3" s="89" t="n"/>
+      <c r="H3" s="89" t="n"/>
+    </row>
+    <row r="4" ht="21" customHeight="1" s="39">
       <c r="A4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="91" t="inlineStr">
+      <c r="B4" s="93" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C4" s="91" t="n">
+      <c r="C4" s="93" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="91" t="n">
+      <c r="D4" s="93" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -3924,25 +3924,25 @@
       <c r="G4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="75" t="inlineStr">
+      <c r="H4" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15.6" customHeight="1" s="64">
+    <row r="5" ht="15.6" customHeight="1" s="39">
       <c r="A5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="92" t="inlineStr">
+      <c r="B5" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C5" s="91" t="n">
+      <c r="C5" s="93" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="91" t="n">
+      <c r="D5" s="93" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -3958,25 +3958,25 @@
       <c r="G5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="75" t="inlineStr">
+      <c r="H5" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15.6" customHeight="1" s="64">
+    <row r="6" ht="15.6" customHeight="1" s="39">
       <c r="A6" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="92" t="inlineStr">
+      <c r="B6" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C6" s="91" t="n">
+      <c r="C6" s="93" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="91" t="n">
+      <c r="D6" s="93" t="n">
         <v>2</v>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -3992,25 +3992,25 @@
       <c r="G6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="75" t="inlineStr">
+      <c r="H6" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15.6" customHeight="1" s="64">
+    <row r="7" ht="15.6" customHeight="1" s="39">
       <c r="A7" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="92" t="inlineStr">
+      <c r="B7" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C7" s="91" t="n">
+      <c r="C7" s="93" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="91" t="n">
+      <c r="D7" s="93" t="n">
         <v>3</v>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -4026,25 +4026,25 @@
       <c r="G7" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="H7" s="75" t="inlineStr">
+      <c r="H7" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15.6" customHeight="1" s="64">
+    <row r="8" ht="15.6" customHeight="1" s="39">
       <c r="A8" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="92" t="inlineStr">
+      <c r="B8" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C8" s="91" t="n">
+      <c r="C8" s="93" t="n">
         <v>4</v>
       </c>
-      <c r="D8" s="91" t="n">
+      <c r="D8" s="93" t="n">
         <v>4</v>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -4060,25 +4060,25 @@
       <c r="G8" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="H8" s="75" t="inlineStr">
+      <c r="H8" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15.6" customHeight="1" s="64">
+    <row r="9" ht="15.6" customHeight="1" s="39">
       <c r="A9" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="92" t="inlineStr">
+      <c r="B9" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C9" s="91" t="n">
+      <c r="C9" s="93" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="91" t="n">
+      <c r="D9" s="93" t="n">
         <v>5</v>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -4094,25 +4094,25 @@
       <c r="G9" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="H9" s="75" t="inlineStr">
+      <c r="H9" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15.6" customHeight="1" s="64">
+    <row r="10" ht="15.6" customHeight="1" s="39">
       <c r="A10" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="92" t="inlineStr">
+      <c r="B10" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C10" s="91" t="n">
+      <c r="C10" s="93" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="91" t="n">
+      <c r="D10" s="93" t="n">
         <v>6</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -4128,25 +4128,25 @@
       <c r="G10" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="H10" s="75" t="inlineStr">
+      <c r="H10" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15.6" customHeight="1" s="64">
+    <row r="11" ht="15.6" customHeight="1" s="39">
       <c r="A11" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="92" t="inlineStr">
+      <c r="B11" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C11" s="91" t="n">
+      <c r="C11" s="93" t="n">
         <v>4</v>
       </c>
-      <c r="D11" s="91" t="n">
+      <c r="D11" s="93" t="n">
         <v>7</v>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -4162,25 +4162,25 @@
       <c r="G11" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="H11" s="75" t="inlineStr">
+      <c r="H11" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15.6" customHeight="1" s="64">
+    <row r="12" ht="15.6" customHeight="1" s="39">
       <c r="A12" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="92" t="inlineStr">
+      <c r="B12" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C12" s="91" t="n">
+      <c r="C12" s="93" t="n">
         <v>5</v>
       </c>
-      <c r="D12" s="91" t="n">
+      <c r="D12" s="93" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -4196,25 +4196,25 @@
       <c r="G12" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="H12" s="75" t="inlineStr">
+      <c r="H12" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15.6" customHeight="1" s="64">
+    <row r="13" ht="15.6" customHeight="1" s="39">
       <c r="A13" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="92" t="inlineStr">
+      <c r="B13" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C13" s="92" t="n">
+      <c r="C13" s="94" t="n">
         <v>5</v>
       </c>
-      <c r="D13" s="91" t="n">
+      <c r="D13" s="93" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -4230,25 +4230,25 @@
       <c r="G13" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="H13" s="75" t="inlineStr">
+      <c r="H13" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="15.6" customHeight="1" s="64">
+    <row r="14" ht="15.6" customHeight="1" s="39">
       <c r="A14" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="92" t="inlineStr">
+      <c r="B14" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C14" s="92" t="n">
+      <c r="C14" s="94" t="n">
         <v>5</v>
       </c>
-      <c r="D14" s="91" t="n">
+      <c r="D14" s="93" t="n">
         <v>2</v>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -4264,25 +4264,25 @@
       <c r="G14" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="H14" s="75" t="inlineStr">
+      <c r="H14" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="15.6" customHeight="1" s="64">
+    <row r="15" ht="15.6" customHeight="1" s="39">
       <c r="A15" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="92" t="inlineStr">
+      <c r="B15" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C15" s="92" t="n">
+      <c r="C15" s="94" t="n">
         <v>5</v>
       </c>
-      <c r="D15" s="91" t="n">
+      <c r="D15" s="93" t="n">
         <v>3</v>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -4298,25 +4298,25 @@
       <c r="G15" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="H15" s="75" t="inlineStr">
+      <c r="H15" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="15.6" customHeight="1" s="64">
+    <row r="16" ht="15.6" customHeight="1" s="39">
       <c r="A16" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="92" t="inlineStr">
+      <c r="B16" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C16" s="92" t="n">
+      <c r="C16" s="94" t="n">
         <v>5</v>
       </c>
-      <c r="D16" s="91" t="n">
+      <c r="D16" s="93" t="n">
         <v>4</v>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -4332,25 +4332,25 @@
       <c r="G16" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="H16" s="75" t="inlineStr">
+      <c r="H16" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="15.6" customHeight="1" s="64">
+    <row r="17" ht="15.6" customHeight="1" s="39">
       <c r="A17" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="92" t="inlineStr">
+      <c r="B17" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C17" s="92" t="n">
+      <c r="C17" s="94" t="n">
         <v>5</v>
       </c>
-      <c r="D17" s="91" t="n">
+      <c r="D17" s="93" t="n">
         <v>5</v>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -4366,25 +4366,25 @@
       <c r="G17" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="H17" s="75" t="inlineStr">
+      <c r="H17" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="15.6" customHeight="1" s="64">
+    <row r="18" ht="15.6" customHeight="1" s="39">
       <c r="A18" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="92" t="inlineStr">
+      <c r="B18" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C18" s="92" t="n">
+      <c r="C18" s="94" t="n">
         <v>5</v>
       </c>
-      <c r="D18" s="91" t="n">
+      <c r="D18" s="93" t="n">
         <v>6</v>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -4400,25 +4400,25 @@
       <c r="G18" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="H18" s="75" t="inlineStr">
+      <c r="H18" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="15.6" customHeight="1" s="64">
+    <row r="19" ht="15.6" customHeight="1" s="39">
       <c r="A19" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="92" t="inlineStr">
+      <c r="B19" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C19" s="92" t="n">
+      <c r="C19" s="94" t="n">
         <v>5</v>
       </c>
-      <c r="D19" s="91" t="n">
+      <c r="D19" s="93" t="n">
         <v>7</v>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -4434,25 +4434,25 @@
       <c r="G19" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="H19" s="75" t="inlineStr">
+      <c r="H19" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="15.6" customHeight="1" s="64">
+    <row r="20" ht="15.6" customHeight="1" s="39">
       <c r="A20" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="92" t="inlineStr">
+      <c r="B20" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C20" s="92" t="n">
+      <c r="C20" s="94" t="n">
         <v>6</v>
       </c>
-      <c r="D20" s="91" t="n">
+      <c r="D20" s="93" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -4468,25 +4468,25 @@
       <c r="G20" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="H20" s="75" t="inlineStr">
+      <c r="H20" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="15.6" customHeight="1" s="64">
+    <row r="21" ht="15.6" customHeight="1" s="39">
       <c r="A21" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="92" t="inlineStr">
+      <c r="B21" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C21" s="92" t="n">
+      <c r="C21" s="94" t="n">
         <v>6</v>
       </c>
-      <c r="D21" s="91" t="n">
+      <c r="D21" s="93" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -4502,25 +4502,25 @@
       <c r="G21" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="H21" s="75" t="inlineStr">
+      <c r="H21" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="15.6" customHeight="1" s="64">
+    <row r="22" ht="15.6" customHeight="1" s="39">
       <c r="A22" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="92" t="inlineStr">
+      <c r="B22" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C22" s="92" t="n">
+      <c r="C22" s="94" t="n">
         <v>6</v>
       </c>
-      <c r="D22" s="91" t="n">
+      <c r="D22" s="93" t="n">
         <v>2</v>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -4536,25 +4536,25 @@
       <c r="G22" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="H22" s="75" t="inlineStr">
+      <c r="H22" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="15.6" customHeight="1" s="64">
+    <row r="23" ht="15.6" customHeight="1" s="39">
       <c r="A23" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="92" t="inlineStr">
+      <c r="B23" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C23" s="92" t="n">
+      <c r="C23" s="94" t="n">
         <v>6</v>
       </c>
-      <c r="D23" s="91" t="n">
+      <c r="D23" s="93" t="n">
         <v>3</v>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -4570,25 +4570,25 @@
       <c r="G23" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="H23" s="75" t="inlineStr">
+      <c r="H23" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="15.6" customHeight="1" s="64">
+    <row r="24" ht="15.6" customHeight="1" s="39">
       <c r="A24" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="92" t="inlineStr">
+      <c r="B24" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C24" s="92" t="n">
+      <c r="C24" s="94" t="n">
         <v>6</v>
       </c>
-      <c r="D24" s="91" t="n">
+      <c r="D24" s="93" t="n">
         <v>4</v>
       </c>
       <c r="E24" s="4" t="inlineStr">
@@ -4604,25 +4604,25 @@
       <c r="G24" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="H24" s="75" t="inlineStr">
+      <c r="H24" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="15.6" customHeight="1" s="64">
+    <row r="25" ht="15.6" customHeight="1" s="39">
       <c r="A25" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="92" t="inlineStr">
+      <c r="B25" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C25" s="92" t="n">
+      <c r="C25" s="94" t="n">
         <v>6</v>
       </c>
-      <c r="D25" s="91" t="n">
+      <c r="D25" s="93" t="n">
         <v>5</v>
       </c>
       <c r="E25" s="4" t="inlineStr">
@@ -4638,25 +4638,25 @@
       <c r="G25" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="H25" s="75" t="inlineStr">
+      <c r="H25" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="15.6" customHeight="1" s="64">
+    <row r="26" ht="15.6" customHeight="1" s="39">
       <c r="A26" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="92" t="inlineStr">
+      <c r="B26" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C26" s="92" t="n">
+      <c r="C26" s="94" t="n">
         <v>6</v>
       </c>
-      <c r="D26" s="92" t="n">
+      <c r="D26" s="94" t="n">
         <v>6</v>
       </c>
       <c r="E26" s="4" t="inlineStr">
@@ -4672,25 +4672,25 @@
       <c r="G26" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="H26" s="75" t="inlineStr">
+      <c r="H26" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15.6" customHeight="1" s="64">
+    <row r="27" ht="15.6" customHeight="1" s="39">
       <c r="A27" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="92" t="inlineStr">
+      <c r="B27" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C27" s="92" t="n">
+      <c r="C27" s="94" t="n">
         <v>6</v>
       </c>
-      <c r="D27" s="91" t="n">
+      <c r="D27" s="93" t="n">
         <v>7</v>
       </c>
       <c r="E27" s="4" t="inlineStr">
@@ -4706,25 +4706,25 @@
       <c r="G27" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="H27" s="75" t="inlineStr">
+      <c r="H27" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="15.6" customHeight="1" s="64">
+    <row r="28" ht="15.6" customHeight="1" s="39">
       <c r="A28" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="92" t="inlineStr">
+      <c r="B28" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C28" s="92" t="n">
+      <c r="C28" s="94" t="n">
         <v>7</v>
       </c>
-      <c r="D28" s="91" t="n">
+      <c r="D28" s="93" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="4" t="inlineStr">
@@ -4740,25 +4740,25 @@
       <c r="G28" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="H28" s="75" t="inlineStr">
+      <c r="H28" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="15.6" customHeight="1" s="64">
+    <row r="29" ht="15.6" customHeight="1" s="39">
       <c r="A29" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="92" t="inlineStr">
+      <c r="B29" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C29" s="92" t="n">
+      <c r="C29" s="94" t="n">
         <v>7</v>
       </c>
-      <c r="D29" s="91" t="n">
+      <c r="D29" s="93" t="n">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="inlineStr">
@@ -4774,25 +4774,25 @@
       <c r="G29" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="H29" s="75" t="inlineStr">
+      <c r="H29" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="15.6" customHeight="1" s="64">
+    <row r="30" ht="15.6" customHeight="1" s="39">
       <c r="A30" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="92" t="inlineStr">
+      <c r="B30" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C30" s="92" t="n">
+      <c r="C30" s="94" t="n">
         <v>7</v>
       </c>
-      <c r="D30" s="91" t="n">
+      <c r="D30" s="93" t="n">
         <v>2</v>
       </c>
       <c r="E30" s="4" t="inlineStr">
@@ -4808,25 +4808,25 @@
       <c r="G30" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="H30" s="75" t="inlineStr">
+      <c r="H30" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="15.6" customHeight="1" s="64">
+    <row r="31" ht="15.6" customHeight="1" s="39">
       <c r="A31" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="92" t="inlineStr">
+      <c r="B31" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C31" s="92" t="n">
+      <c r="C31" s="94" t="n">
         <v>7</v>
       </c>
-      <c r="D31" s="91" t="n">
+      <c r="D31" s="93" t="n">
         <v>3</v>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -4842,25 +4842,25 @@
       <c r="G31" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="H31" s="75" t="inlineStr">
+      <c r="H31" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="15.6" customHeight="1" s="64">
+    <row r="32" ht="15.6" customHeight="1" s="39">
       <c r="A32" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="92" t="inlineStr">
+      <c r="B32" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C32" s="92" t="n">
+      <c r="C32" s="94" t="n">
         <v>7</v>
       </c>
-      <c r="D32" s="91" t="n">
+      <c r="D32" s="93" t="n">
         <v>4</v>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -4876,25 +4876,25 @@
       <c r="G32" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="H32" s="75" t="inlineStr">
+      <c r="H32" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="15.6" customHeight="1" s="64">
+    <row r="33" ht="15.6" customHeight="1" s="39">
       <c r="A33" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="92" t="inlineStr">
+      <c r="B33" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C33" s="92" t="n">
+      <c r="C33" s="94" t="n">
         <v>7</v>
       </c>
-      <c r="D33" s="91" t="n">
+      <c r="D33" s="93" t="n">
         <v>5</v>
       </c>
       <c r="E33" s="4" t="inlineStr">
@@ -4910,25 +4910,25 @@
       <c r="G33" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="H33" s="75" t="inlineStr">
+      <c r="H33" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="15.6" customHeight="1" s="64">
+    <row r="34" ht="15.6" customHeight="1" s="39">
       <c r="A34" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="92" t="inlineStr">
+      <c r="B34" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C34" s="92" t="n">
+      <c r="C34" s="94" t="n">
         <v>7</v>
       </c>
-      <c r="D34" s="91" t="n">
+      <c r="D34" s="93" t="n">
         <v>6</v>
       </c>
       <c r="E34" s="4" t="inlineStr">
@@ -4944,25 +4944,25 @@
       <c r="G34" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="H34" s="75" t="inlineStr">
+      <c r="H34" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="15.6" customHeight="1" s="64">
+    <row r="35" ht="15.6" customHeight="1" s="39">
       <c r="A35" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="92" t="inlineStr">
+      <c r="B35" s="94" t="inlineStr">
         <is>
           <t>DIO0/1</t>
         </is>
       </c>
-      <c r="C35" s="92" t="n">
+      <c r="C35" s="94" t="n">
         <v>7</v>
       </c>
-      <c r="D35" s="91" t="n">
+      <c r="D35" s="93" t="n">
         <v>7</v>
       </c>
       <c r="E35" s="4" t="inlineStr">
@@ -4978,19 +4978,19 @@
       <c r="G35" s="5" t="n">
         <v>67</v>
       </c>
-      <c r="H35" s="75" t="inlineStr">
+      <c r="H35" s="77" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="15.6" customHeight="1" s="64">
+    <row r="36" ht="15.6" customHeight="1" s="39">
       <c r="A36" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="92" t="n"/>
-      <c r="C36" s="91" t="n"/>
-      <c r="D36" s="91" t="n"/>
+      <c r="B36" s="94" t="n"/>
+      <c r="C36" s="93" t="n"/>
+      <c r="D36" s="93" t="n"/>
       <c r="E36" s="4" t="inlineStr">
         <is>
           <t>公共端</t>
@@ -5006,15 +5006,15 @@
           <t>70-77</t>
         </is>
       </c>
-      <c r="H36" s="75" t="n"/>
-    </row>
-    <row r="37" ht="15.6" customHeight="1" s="64">
+      <c r="H36" s="77" t="n"/>
+    </row>
+    <row r="37" ht="15.6" customHeight="1" s="39">
       <c r="A37" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="92" t="n"/>
-      <c r="C37" s="91" t="n"/>
-      <c r="D37" s="91" t="n"/>
+      <c r="B37" s="94" t="n"/>
+      <c r="C37" s="93" t="n"/>
+      <c r="D37" s="93" t="n"/>
       <c r="E37" s="4" t="inlineStr">
         <is>
           <t>壳</t>
@@ -5028,21 +5028,21 @@
       <c r="G37" s="5" t="n">
         <v>78</v>
       </c>
-      <c r="H37" s="75" t="n"/>
+      <c r="H37" s="77" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="90" t="inlineStr">
+      <c r="A38" s="82" t="inlineStr">
         <is>
           <t>测试人员：</t>
         </is>
       </c>
-      <c r="B38" s="74" t="n"/>
-      <c r="C38" s="89" t="inlineStr">
+      <c r="B38" s="79" t="n"/>
+      <c r="C38" s="81" t="inlineStr">
         <is>
           <t>解梦迪</t>
         </is>
       </c>
-      <c r="D38" s="74" t="n"/>
+      <c r="D38" s="79" t="n"/>
       <c r="E38" s="22" t="inlineStr">
         <is>
           <t>测试时间:</t>
@@ -5050,15 +5050,15 @@
       </c>
       <c r="F38" s="110" t="inlineStr">
         <is>
-          <t>2019/12/22</t>
-        </is>
-      </c>
-      <c r="G38" s="73" t="inlineStr">
+          <t>2019/12/24</t>
+        </is>
+      </c>
+      <c r="G38" s="78" t="inlineStr">
         <is>
           <t>是否合格：合格（√）不合格</t>
         </is>
       </c>
-      <c r="H38" s="74" t="n"/>
+      <c r="H38" s="79" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5092,112 +5092,112 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="3.44140625" customWidth="1" style="64" min="1" max="1"/>
-    <col width="3.88671875" customWidth="1" style="64" min="3" max="3"/>
-    <col width="16.77734375" customWidth="1" style="64" min="4" max="4"/>
-    <col width="9.88671875" customWidth="1" style="64" min="5" max="5"/>
-    <col width="10" customWidth="1" style="64" min="6" max="6"/>
-    <col width="4.77734375" customWidth="1" style="64" min="7" max="7"/>
-    <col width="9" customWidth="1" style="64" min="8" max="8"/>
-    <col width="6.33203125" customWidth="1" style="64" min="9" max="9"/>
-    <col width="15" customWidth="1" style="64" min="10" max="10"/>
+    <col width="3.44140625" customWidth="1" style="39" min="1" max="1"/>
+    <col width="3.88671875" customWidth="1" style="39" min="3" max="3"/>
+    <col width="16.77734375" customWidth="1" style="39" min="4" max="4"/>
+    <col width="9.88671875" customWidth="1" style="39" min="5" max="5"/>
+    <col width="10" customWidth="1" style="39" min="6" max="6"/>
+    <col width="4.77734375" customWidth="1" style="39" min="7" max="7"/>
+    <col width="9" customWidth="1" style="39" min="8" max="8"/>
+    <col width="6.33203125" customWidth="1" style="39" min="9" max="9"/>
+    <col width="15" customWidth="1" style="39" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.4" customHeight="1" s="64">
-      <c r="A1" s="93" t="inlineStr">
+    <row r="1" ht="29.4" customHeight="1" s="39">
+      <c r="A1" s="91" t="inlineStr">
         <is>
           <t>表4     611-03模拟量输入功能测试表</t>
         </is>
       </c>
-      <c r="B1" s="76" t="n"/>
-      <c r="C1" s="76" t="n"/>
-      <c r="D1" s="76" t="n"/>
-      <c r="E1" s="76" t="n"/>
-      <c r="F1" s="76" t="n"/>
-      <c r="G1" s="76" t="n"/>
-      <c r="H1" s="76" t="n"/>
-      <c r="I1" s="76" t="n"/>
-      <c r="J1" s="77" t="n"/>
-    </row>
-    <row r="2" ht="15.6" customHeight="1" s="64">
-      <c r="A2" s="88" t="inlineStr">
+      <c r="B1" s="75" t="n"/>
+      <c r="C1" s="75" t="n"/>
+      <c r="D1" s="75" t="n"/>
+      <c r="E1" s="75" t="n"/>
+      <c r="F1" s="75" t="n"/>
+      <c r="G1" s="75" t="n"/>
+      <c r="H1" s="75" t="n"/>
+      <c r="I1" s="75" t="n"/>
+      <c r="J1" s="76" t="n"/>
+    </row>
+    <row r="2" ht="15.6" customHeight="1" s="39">
+      <c r="A2" s="90" t="inlineStr">
         <is>
           <t>序
 号</t>
         </is>
       </c>
-      <c r="B2" s="86" t="inlineStr">
+      <c r="B2" s="88" t="inlineStr">
         <is>
           <t>信号名称</t>
         </is>
       </c>
-      <c r="C2" s="77" t="n"/>
-      <c r="D2" s="88" t="inlineStr">
+      <c r="C2" s="76" t="n"/>
+      <c r="D2" s="90" t="inlineStr">
         <is>
           <t>信号类型</t>
         </is>
       </c>
-      <c r="E2" s="86" t="inlineStr">
+      <c r="E2" s="88" t="inlineStr">
         <is>
           <t>输入电平</t>
         </is>
       </c>
-      <c r="F2" s="86" t="inlineStr">
+      <c r="F2" s="88" t="inlineStr">
         <is>
           <t>信号性质</t>
         </is>
       </c>
-      <c r="G2" s="88" t="inlineStr">
+      <c r="G2" s="90" t="inlineStr">
         <is>
           <t>节点</t>
         </is>
       </c>
-      <c r="H2" s="88" t="inlineStr">
+      <c r="H2" s="90" t="inlineStr">
         <is>
           <t>误差范围</t>
         </is>
       </c>
-      <c r="I2" s="88" t="inlineStr">
+      <c r="I2" s="90" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
-      <c r="J2" s="88" t="inlineStr">
+      <c r="J2" s="90" t="inlineStr">
         <is>
           <t>合格</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.6" customHeight="1" s="64">
-      <c r="A3" s="87" t="n"/>
-      <c r="B3" s="88" t="inlineStr">
+    <row r="3" ht="15.6" customHeight="1" s="39">
+      <c r="A3" s="89" t="n"/>
+      <c r="B3" s="90" t="inlineStr">
         <is>
           <t>板卡</t>
         </is>
       </c>
-      <c r="C3" s="88" t="inlineStr">
+      <c r="C3" s="90" t="inlineStr">
         <is>
           <t>路</t>
         </is>
       </c>
-      <c r="D3" s="87" t="n"/>
-      <c r="E3" s="87" t="n"/>
-      <c r="F3" s="87" t="n"/>
-      <c r="G3" s="87" t="n"/>
-      <c r="H3" s="87" t="n"/>
-      <c r="I3" s="87" t="n"/>
-      <c r="J3" s="87" t="n"/>
-    </row>
-    <row r="4" ht="19.8" customHeight="1" s="64">
+      <c r="D3" s="89" t="n"/>
+      <c r="E3" s="89" t="n"/>
+      <c r="F3" s="89" t="n"/>
+      <c r="G3" s="89" t="n"/>
+      <c r="H3" s="89" t="n"/>
+      <c r="I3" s="89" t="n"/>
+      <c r="J3" s="89" t="n"/>
+    </row>
+    <row r="4" ht="19.8" customHeight="1" s="39">
       <c r="A4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="91" t="inlineStr">
+      <c r="B4" s="93" t="inlineStr">
         <is>
           <t>AIO-AD</t>
         </is>
       </c>
-      <c r="C4" s="91" t="n">
+      <c r="C4" s="93" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -5218,26 +5218,26 @@
       <c r="G4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="92" t="inlineStr">
+      <c r="H4" s="94" t="inlineStr">
         <is>
           <t>4.50~4.68</t>
         </is>
       </c>
-      <c r="I4" s="92" t="n">
+      <c r="I4" s="94" t="n">
         <v>4.578</v>
       </c>
-      <c r="J4" s="75" t="inlineStr">
+      <c r="J4" s="77" t="inlineStr">
         <is>
           <t>是（√）否（）</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="19.8" customHeight="1" s="64">
+    <row r="5" ht="19.8" customHeight="1" s="39">
       <c r="A5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="87" t="n"/>
-      <c r="C5" s="87" t="n"/>
+      <c r="B5" s="89" t="n"/>
+      <c r="C5" s="89" t="n"/>
       <c r="D5" s="4" t="inlineStr">
         <is>
           <t>气源压力BP1</t>
@@ -5256,20 +5256,20 @@
       <c r="G5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="87" t="n"/>
-      <c r="I5" s="87" t="n"/>
-      <c r="J5" s="87" t="n"/>
-    </row>
-    <row r="6" ht="23.4" customHeight="1" s="64">
+      <c r="H5" s="89" t="n"/>
+      <c r="I5" s="89" t="n"/>
+      <c r="J5" s="89" t="n"/>
+    </row>
+    <row r="6" ht="23.4" customHeight="1" s="39">
       <c r="A6" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="91" t="inlineStr">
+      <c r="B6" s="93" t="inlineStr">
         <is>
           <t>AIO-AD</t>
         </is>
       </c>
-      <c r="C6" s="91" t="n">
+      <c r="C6" s="93" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -5290,26 +5290,26 @@
       <c r="G6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="92" t="inlineStr">
+      <c r="H6" s="94" t="inlineStr">
         <is>
           <t>4.50~4.68</t>
         </is>
       </c>
-      <c r="I6" s="92" t="n">
+      <c r="I6" s="94" t="n">
         <v>4.584</v>
       </c>
-      <c r="J6" s="75" t="inlineStr">
+      <c r="J6" s="77" t="inlineStr">
         <is>
           <t>是（√）否（）</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="25.2" customHeight="1" s="64">
+    <row r="7" ht="25.2" customHeight="1" s="39">
       <c r="A7" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="87" t="n"/>
-      <c r="C7" s="87" t="n"/>
+      <c r="B7" s="89" t="n"/>
+      <c r="C7" s="89" t="n"/>
       <c r="D7" s="4" t="inlineStr">
         <is>
           <t>气源压力BP2</t>
@@ -5328,20 +5328,20 @@
       <c r="G7" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="H7" s="87" t="n"/>
-      <c r="I7" s="87" t="n"/>
-      <c r="J7" s="87" t="n"/>
-    </row>
-    <row r="8" ht="21" customHeight="1" s="64">
+      <c r="H7" s="89" t="n"/>
+      <c r="I7" s="89" t="n"/>
+      <c r="J7" s="89" t="n"/>
+    </row>
+    <row r="8" ht="21" customHeight="1" s="39">
       <c r="A8" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="91" t="inlineStr">
+      <c r="B8" s="93" t="inlineStr">
         <is>
           <t>AIO-AD</t>
         </is>
       </c>
-      <c r="C8" s="91" t="n">
+      <c r="C8" s="93" t="n">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -5362,26 +5362,26 @@
       <c r="G8" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="H8" s="92" t="inlineStr">
+      <c r="H8" s="94" t="inlineStr">
         <is>
           <t>4.50~4.68</t>
         </is>
       </c>
-      <c r="I8" s="92" t="n">
+      <c r="I8" s="94" t="n">
         <v>4.584</v>
       </c>
-      <c r="J8" s="75" t="inlineStr">
+      <c r="J8" s="77" t="inlineStr">
         <is>
           <t>是（√）否（）</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="19.8" customHeight="1" s="64">
+    <row r="9" ht="19.8" customHeight="1" s="39">
       <c r="A9" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="87" t="n"/>
-      <c r="C9" s="87" t="n"/>
+      <c r="B9" s="89" t="n"/>
+      <c r="C9" s="89" t="n"/>
       <c r="D9" s="4" t="inlineStr">
         <is>
           <t>气源压力BP3</t>
@@ -5400,20 +5400,20 @@
       <c r="G9" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="H9" s="87" t="n"/>
-      <c r="I9" s="87" t="n"/>
-      <c r="J9" s="87" t="n"/>
-    </row>
-    <row r="10" ht="19.8" customHeight="1" s="64">
+      <c r="H9" s="89" t="n"/>
+      <c r="I9" s="89" t="n"/>
+      <c r="J9" s="89" t="n"/>
+    </row>
+    <row r="10" ht="19.8" customHeight="1" s="39">
       <c r="A10" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="91" t="inlineStr">
+      <c r="B10" s="93" t="inlineStr">
         <is>
           <t>AIO-AD</t>
         </is>
       </c>
-      <c r="C10" s="91" t="n">
+      <c r="C10" s="93" t="n">
         <v>3</v>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -5434,26 +5434,26 @@
       <c r="G10" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="H10" s="92" t="inlineStr">
+      <c r="H10" s="94" t="inlineStr">
         <is>
           <t>4.50~4.68</t>
         </is>
       </c>
-      <c r="I10" s="92" t="n">
+      <c r="I10" s="94" t="n">
         <v>4.578</v>
       </c>
-      <c r="J10" s="75" t="inlineStr">
+      <c r="J10" s="77" t="inlineStr">
         <is>
           <t>是（√）否（）</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="22.2" customHeight="1" s="64">
+    <row r="11" ht="22.2" customHeight="1" s="39">
       <c r="A11" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="87" t="n"/>
-      <c r="C11" s="87" t="n"/>
+      <c r="B11" s="89" t="n"/>
+      <c r="C11" s="89" t="n"/>
       <c r="D11" s="4" t="inlineStr">
         <is>
           <t>气源压力BP4</t>
@@ -5472,20 +5472,20 @@
       <c r="G11" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="H11" s="87" t="n"/>
-      <c r="I11" s="87" t="n"/>
-      <c r="J11" s="87" t="n"/>
-    </row>
-    <row r="12" ht="21" customHeight="1" s="64">
+      <c r="H11" s="89" t="n"/>
+      <c r="I11" s="89" t="n"/>
+      <c r="J11" s="89" t="n"/>
+    </row>
+    <row r="12" ht="21" customHeight="1" s="39">
       <c r="A12" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="91" t="inlineStr">
+      <c r="B12" s="93" t="inlineStr">
         <is>
           <t>AIO-AD</t>
         </is>
       </c>
-      <c r="C12" s="91" t="n">
+      <c r="C12" s="93" t="n">
         <v>4</v>
       </c>
       <c r="D12" s="4" t="inlineStr">
@@ -5506,26 +5506,26 @@
       <c r="G12" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="H12" s="92" t="inlineStr">
+      <c r="H12" s="94" t="inlineStr">
         <is>
           <t>4.50~4.68</t>
         </is>
       </c>
-      <c r="I12" s="92" t="n">
+      <c r="I12" s="94" t="n">
         <v>4.578</v>
       </c>
-      <c r="J12" s="75" t="inlineStr">
+      <c r="J12" s="77" t="inlineStr">
         <is>
           <t>是（√）否（）</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="21.6" customHeight="1" s="64">
+    <row r="13" ht="21.6" customHeight="1" s="39">
       <c r="A13" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="87" t="n"/>
-      <c r="C13" s="87" t="n"/>
+      <c r="B13" s="89" t="n"/>
+      <c r="C13" s="89" t="n"/>
       <c r="D13" s="4" t="inlineStr">
         <is>
           <t>气源压力BP5</t>
@@ -5544,20 +5544,20 @@
       <c r="G13" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="H13" s="87" t="n"/>
-      <c r="I13" s="87" t="n"/>
-      <c r="J13" s="87" t="n"/>
-    </row>
-    <row r="14" ht="20.4" customHeight="1" s="64">
+      <c r="H13" s="89" t="n"/>
+      <c r="I13" s="89" t="n"/>
+      <c r="J13" s="89" t="n"/>
+    </row>
+    <row r="14" ht="20.4" customHeight="1" s="39">
       <c r="A14" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="91" t="inlineStr">
+      <c r="B14" s="93" t="inlineStr">
         <is>
           <t>AIO-AD</t>
         </is>
       </c>
-      <c r="C14" s="91" t="n">
+      <c r="C14" s="93" t="n">
         <v>5</v>
       </c>
       <c r="D14" s="4" t="inlineStr">
@@ -5578,26 +5578,26 @@
       <c r="G14" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="H14" s="92" t="inlineStr">
+      <c r="H14" s="94" t="inlineStr">
         <is>
           <t>4.50~4.68</t>
         </is>
       </c>
-      <c r="I14" s="92" t="n">
+      <c r="I14" s="94" t="n">
         <v>4.578</v>
       </c>
-      <c r="J14" s="75" t="inlineStr">
+      <c r="J14" s="77" t="inlineStr">
         <is>
           <t>是（√）否（）</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="21" customHeight="1" s="64">
+    <row r="15" ht="21" customHeight="1" s="39">
       <c r="A15" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="87" t="n"/>
-      <c r="C15" s="87" t="n"/>
+      <c r="B15" s="89" t="n"/>
+      <c r="C15" s="89" t="n"/>
       <c r="D15" s="4" t="inlineStr">
         <is>
           <t>气源压力BP6</t>
@@ -5616,20 +5616,20 @@
       <c r="G15" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="H15" s="87" t="n"/>
-      <c r="I15" s="87" t="n"/>
-      <c r="J15" s="75" t="n"/>
-    </row>
-    <row r="16" ht="19.2" customHeight="1" s="64">
+      <c r="H15" s="89" t="n"/>
+      <c r="I15" s="89" t="n"/>
+      <c r="J15" s="77" t="n"/>
+    </row>
+    <row r="16" ht="19.2" customHeight="1" s="39">
       <c r="A16" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="91" t="inlineStr">
+      <c r="B16" s="93" t="inlineStr">
         <is>
           <t>AIO-AD</t>
         </is>
       </c>
-      <c r="C16" s="91" t="n">
+      <c r="C16" s="93" t="n">
         <v>6</v>
       </c>
       <c r="D16" s="4" t="inlineStr">
@@ -5650,26 +5650,26 @@
       <c r="G16" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="H16" s="92" t="inlineStr">
+      <c r="H16" s="94" t="inlineStr">
         <is>
           <t>4.50~4.68</t>
         </is>
       </c>
-      <c r="I16" s="92" t="n">
+      <c r="I16" s="94" t="n">
         <v>4.578</v>
       </c>
-      <c r="J16" s="75" t="inlineStr">
+      <c r="J16" s="77" t="inlineStr">
         <is>
           <t>是（√）否（）</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="19.8" customHeight="1" s="64">
+    <row r="17" ht="19.8" customHeight="1" s="39">
       <c r="A17" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="87" t="n"/>
-      <c r="C17" s="87" t="n"/>
+      <c r="B17" s="89" t="n"/>
+      <c r="C17" s="89" t="n"/>
       <c r="D17" s="4" t="inlineStr">
         <is>
           <t>气源压力BP7</t>
@@ -5688,20 +5688,20 @@
       <c r="G17" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="H17" s="87" t="n"/>
-      <c r="I17" s="87" t="n"/>
-      <c r="J17" s="87" t="n"/>
-    </row>
-    <row r="18" ht="20.4" customHeight="1" s="64">
+      <c r="H17" s="89" t="n"/>
+      <c r="I17" s="89" t="n"/>
+      <c r="J17" s="89" t="n"/>
+    </row>
+    <row r="18" ht="20.4" customHeight="1" s="39">
       <c r="A18" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="91" t="inlineStr">
+      <c r="B18" s="93" t="inlineStr">
         <is>
           <t>AIO-AD</t>
         </is>
       </c>
-      <c r="C18" s="91" t="n">
+      <c r="C18" s="93" t="n">
         <v>7</v>
       </c>
       <c r="D18" s="4" t="inlineStr">
@@ -5722,26 +5722,26 @@
       <c r="G18" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="H18" s="92" t="inlineStr">
+      <c r="H18" s="94" t="inlineStr">
         <is>
           <t>4.50~4.68</t>
         </is>
       </c>
-      <c r="I18" s="92" t="n">
+      <c r="I18" s="94" t="n">
         <v>4.578</v>
       </c>
-      <c r="J18" s="75" t="inlineStr">
+      <c r="J18" s="77" t="inlineStr">
         <is>
           <t>是（√）否（）</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="15.6" customHeight="1" s="64">
+    <row r="19" ht="15.6" customHeight="1" s="39">
       <c r="A19" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="87" t="n"/>
-      <c r="C19" s="87" t="n"/>
+      <c r="B19" s="89" t="n"/>
+      <c r="C19" s="89" t="n"/>
       <c r="D19" s="4" t="inlineStr">
         <is>
           <t>气源压力BP2Y-1</t>
@@ -5760,20 +5760,20 @@
       <c r="G19" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="H19" s="87" t="n"/>
-      <c r="I19" s="87" t="n"/>
-      <c r="J19" s="87" t="n"/>
-    </row>
-    <row r="20" ht="20.4" customHeight="1" s="64">
+      <c r="H19" s="89" t="n"/>
+      <c r="I19" s="89" t="n"/>
+      <c r="J19" s="89" t="n"/>
+    </row>
+    <row r="20" ht="20.4" customHeight="1" s="39">
       <c r="A20" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="91" t="inlineStr">
+      <c r="B20" s="93" t="inlineStr">
         <is>
           <t>AIO-AD</t>
         </is>
       </c>
-      <c r="C20" s="91" t="n">
+      <c r="C20" s="93" t="n">
         <v>9</v>
       </c>
       <c r="D20" s="4" t="inlineStr">
@@ -5794,26 +5794,26 @@
       <c r="G20" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="H20" s="92" t="inlineStr">
+      <c r="H20" s="94" t="inlineStr">
         <is>
           <t>4.50~4.68</t>
         </is>
       </c>
-      <c r="I20" s="92" t="n">
+      <c r="I20" s="94" t="n">
         <v>4.578</v>
       </c>
-      <c r="J20" s="75" t="inlineStr">
+      <c r="J20" s="77" t="inlineStr">
         <is>
           <t>是（√）否（）</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="22.2" customHeight="1" s="64">
+    <row r="21" ht="22.2" customHeight="1" s="39">
       <c r="A21" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="87" t="n"/>
-      <c r="C21" s="87" t="n"/>
+      <c r="B21" s="89" t="n"/>
+      <c r="C21" s="89" t="n"/>
       <c r="D21" s="4" t="inlineStr">
         <is>
           <t>气源压力BP2Y-2</t>
@@ -5832,20 +5832,20 @@
       <c r="G21" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="H21" s="87" t="n"/>
-      <c r="I21" s="87" t="n"/>
-      <c r="J21" s="87" t="n"/>
-    </row>
-    <row r="22" ht="15.6" customHeight="1" s="64">
+      <c r="H21" s="89" t="n"/>
+      <c r="I21" s="89" t="n"/>
+      <c r="J21" s="89" t="n"/>
+    </row>
+    <row r="22" ht="15.6" customHeight="1" s="39">
       <c r="A22" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="91" t="inlineStr">
+      <c r="B22" s="93" t="inlineStr">
         <is>
           <t>AIO-AD</t>
         </is>
       </c>
-      <c r="C22" s="91" t="n">
+      <c r="C22" s="93" t="n">
         <v>10</v>
       </c>
       <c r="D22" s="4" t="inlineStr">
@@ -5866,26 +5866,26 @@
       <c r="G22" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="H22" s="92" t="inlineStr">
+      <c r="H22" s="94" t="inlineStr">
         <is>
           <t>4.50~4.68</t>
         </is>
       </c>
-      <c r="I22" s="92" t="n">
+      <c r="I22" s="94" t="n">
         <v>4.584</v>
       </c>
-      <c r="J22" s="75" t="inlineStr">
+      <c r="J22" s="77" t="inlineStr">
         <is>
           <t>是（√）否（）</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="15.6" customHeight="1" s="64">
+    <row r="23" ht="15.6" customHeight="1" s="39">
       <c r="A23" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="87" t="n"/>
-      <c r="C23" s="87" t="n"/>
+      <c r="B23" s="89" t="n"/>
+      <c r="C23" s="89" t="n"/>
       <c r="D23" s="4" t="inlineStr">
         <is>
           <t>气源压力BP2R-1</t>
@@ -5904,20 +5904,20 @@
       <c r="G23" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="H23" s="87" t="n"/>
-      <c r="I23" s="87" t="n"/>
-      <c r="J23" s="87" t="n"/>
-    </row>
-    <row r="24" ht="19.8" customHeight="1" s="64">
+      <c r="H23" s="89" t="n"/>
+      <c r="I23" s="89" t="n"/>
+      <c r="J23" s="89" t="n"/>
+    </row>
+    <row r="24" ht="19.8" customHeight="1" s="39">
       <c r="A24" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="91" t="inlineStr">
+      <c r="B24" s="93" t="inlineStr">
         <is>
           <t>AIO-AD</t>
         </is>
       </c>
-      <c r="C24" s="91" t="n">
+      <c r="C24" s="93" t="n">
         <v>11</v>
       </c>
       <c r="D24" s="4" t="inlineStr">
@@ -5938,26 +5938,26 @@
       <c r="G24" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="H24" s="92" t="inlineStr">
+      <c r="H24" s="94" t="inlineStr">
         <is>
           <t>4.50~4.68</t>
         </is>
       </c>
-      <c r="I24" s="92" t="n">
+      <c r="I24" s="94" t="n">
         <v>4.584</v>
       </c>
-      <c r="J24" s="75" t="inlineStr">
+      <c r="J24" s="77" t="inlineStr">
         <is>
           <t>是（√）否（）</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="19.8" customHeight="1" s="64">
+    <row r="25" ht="19.8" customHeight="1" s="39">
       <c r="A25" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="87" t="n"/>
-      <c r="C25" s="87" t="n"/>
+      <c r="B25" s="89" t="n"/>
+      <c r="C25" s="89" t="n"/>
       <c r="D25" s="4" t="inlineStr">
         <is>
           <t>气源压力BP2R-2</t>
@@ -5976,20 +5976,20 @@
       <c r="G25" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="H25" s="87" t="n"/>
-      <c r="I25" s="87" t="n"/>
-      <c r="J25" s="87" t="n"/>
-    </row>
-    <row r="26" ht="19.2" customHeight="1" s="64">
+      <c r="H25" s="89" t="n"/>
+      <c r="I25" s="89" t="n"/>
+      <c r="J25" s="89" t="n"/>
+    </row>
+    <row r="26" ht="19.2" customHeight="1" s="39">
       <c r="A26" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="91" t="inlineStr">
+      <c r="B26" s="93" t="inlineStr">
         <is>
           <t>AIO-AD</t>
         </is>
       </c>
-      <c r="C26" s="91" t="n">
+      <c r="C26" s="93" t="n">
         <v>12</v>
       </c>
       <c r="D26" s="4" t="inlineStr">
@@ -6010,26 +6010,26 @@
       <c r="G26" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="H26" s="92" t="inlineStr">
+      <c r="H26" s="94" t="inlineStr">
         <is>
           <t>4.50~4.68</t>
         </is>
       </c>
-      <c r="I26" s="92" t="n">
+      <c r="I26" s="94" t="n">
         <v>4.589</v>
       </c>
-      <c r="J26" s="75" t="inlineStr">
+      <c r="J26" s="77" t="inlineStr">
         <is>
           <t>是（√）否（）</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="18.6" customHeight="1" s="64">
+    <row r="27" ht="18.6" customHeight="1" s="39">
       <c r="A27" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="87" t="n"/>
-      <c r="C27" s="87" t="n"/>
+      <c r="B27" s="89" t="n"/>
+      <c r="C27" s="89" t="n"/>
       <c r="D27" s="4" t="inlineStr">
         <is>
           <t>气源压力BP1Y-1</t>
@@ -6048,20 +6048,20 @@
       <c r="G27" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="H27" s="87" t="n"/>
-      <c r="I27" s="87" t="n"/>
-      <c r="J27" s="87" t="n"/>
-    </row>
-    <row r="28" ht="15.6" customHeight="1" s="64">
+      <c r="H27" s="89" t="n"/>
+      <c r="I27" s="89" t="n"/>
+      <c r="J27" s="89" t="n"/>
+    </row>
+    <row r="28" ht="15.6" customHeight="1" s="39">
       <c r="A28" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="91" t="inlineStr">
+      <c r="B28" s="93" t="inlineStr">
         <is>
           <t>AIO-AD</t>
         </is>
       </c>
-      <c r="C28" s="91" t="n">
+      <c r="C28" s="93" t="n">
         <v>13</v>
       </c>
       <c r="D28" s="4" t="inlineStr">
@@ -6082,26 +6082,26 @@
       <c r="G28" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="H28" s="92" t="inlineStr">
+      <c r="H28" s="94" t="inlineStr">
         <is>
           <t>4.50~4.68</t>
         </is>
       </c>
-      <c r="I28" s="92" t="n">
+      <c r="I28" s="94" t="n">
         <v>4.584</v>
       </c>
-      <c r="J28" s="75" t="inlineStr">
+      <c r="J28" s="77" t="inlineStr">
         <is>
           <t>是（√）否（）</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="20.4" customHeight="1" s="64">
+    <row r="29" ht="20.4" customHeight="1" s="39">
       <c r="A29" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="87" t="n"/>
-      <c r="C29" s="87" t="n"/>
+      <c r="B29" s="89" t="n"/>
+      <c r="C29" s="89" t="n"/>
       <c r="D29" s="4" t="inlineStr">
         <is>
           <t>气源压力BP1Y-2</t>
@@ -6120,20 +6120,20 @@
       <c r="G29" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="H29" s="87" t="n"/>
-      <c r="I29" s="87" t="n"/>
-      <c r="J29" s="87" t="n"/>
-    </row>
-    <row r="30" ht="20.4" customHeight="1" s="64">
+      <c r="H29" s="89" t="n"/>
+      <c r="I29" s="89" t="n"/>
+      <c r="J29" s="89" t="n"/>
+    </row>
+    <row r="30" ht="20.4" customHeight="1" s="39">
       <c r="A30" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="91" t="inlineStr">
+      <c r="B30" s="93" t="inlineStr">
         <is>
           <t>AIO-AD</t>
         </is>
       </c>
-      <c r="C30" s="91" t="n">
+      <c r="C30" s="93" t="n">
         <v>14</v>
       </c>
       <c r="D30" s="4" t="inlineStr">
@@ -6154,26 +6154,26 @@
       <c r="G30" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="H30" s="92" t="inlineStr">
+      <c r="H30" s="94" t="inlineStr">
         <is>
           <t>4.50~4.68</t>
         </is>
       </c>
-      <c r="I30" s="92" t="n">
+      <c r="I30" s="94" t="n">
         <v>4.589</v>
       </c>
-      <c r="J30" s="75" t="inlineStr">
+      <c r="J30" s="77" t="inlineStr">
         <is>
           <t>是（√）否（）</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="21" customHeight="1" s="64">
+    <row r="31" ht="21" customHeight="1" s="39">
       <c r="A31" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="87" t="n"/>
-      <c r="C31" s="87" t="n"/>
+      <c r="B31" s="89" t="n"/>
+      <c r="C31" s="89" t="n"/>
       <c r="D31" s="4" t="inlineStr">
         <is>
           <t>气源压力BP1R-1</t>
@@ -6192,20 +6192,20 @@
       <c r="G31" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="H31" s="87" t="n"/>
-      <c r="I31" s="87" t="n"/>
-      <c r="J31" s="87" t="n"/>
-    </row>
-    <row r="32" ht="21" customHeight="1" s="64">
+      <c r="H31" s="89" t="n"/>
+      <c r="I31" s="89" t="n"/>
+      <c r="J31" s="89" t="n"/>
+    </row>
+    <row r="32" ht="21" customHeight="1" s="39">
       <c r="A32" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="91" t="inlineStr">
+      <c r="B32" s="93" t="inlineStr">
         <is>
           <t>AIO-AD</t>
         </is>
       </c>
-      <c r="C32" s="91" t="n">
+      <c r="C32" s="93" t="n">
         <v>15</v>
       </c>
       <c r="D32" s="4" t="inlineStr">
@@ -6226,26 +6226,26 @@
       <c r="G32" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="H32" s="92" t="inlineStr">
+      <c r="H32" s="94" t="inlineStr">
         <is>
           <t>4.50~4.68</t>
         </is>
       </c>
-      <c r="I32" s="92" t="n">
+      <c r="I32" s="94" t="n">
         <v>4.584</v>
       </c>
-      <c r="J32" s="75" t="inlineStr">
+      <c r="J32" s="77" t="inlineStr">
         <is>
           <t>是（√）否（）</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="22.2" customHeight="1" s="64">
+    <row r="33" ht="22.2" customHeight="1" s="39">
       <c r="A33" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="87" t="n"/>
-      <c r="C33" s="87" t="n"/>
+      <c r="B33" s="89" t="n"/>
+      <c r="C33" s="89" t="n"/>
       <c r="D33" s="4" t="inlineStr">
         <is>
           <t>气源压力BP1R-2</t>
@@ -6264,17 +6264,17 @@
       <c r="G33" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="H33" s="87" t="n"/>
-      <c r="I33" s="87" t="n"/>
-      <c r="J33" s="87" t="n"/>
+      <c r="H33" s="89" t="n"/>
+      <c r="I33" s="89" t="n"/>
+      <c r="J33" s="89" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="94" t="inlineStr">
+      <c r="A34" s="92" t="inlineStr">
         <is>
           <t>测试人员</t>
         </is>
       </c>
-      <c r="C34" s="94" t="inlineStr">
+      <c r="C34" s="92" t="inlineStr">
         <is>
           <t>解梦迪</t>
         </is>
@@ -6286,15 +6286,15 @@
       </c>
       <c r="F34" s="111" t="inlineStr">
         <is>
-          <t>2019/12/22</t>
-        </is>
-      </c>
-      <c r="G34" s="94" t="inlineStr">
+          <t>2019/12/24</t>
+        </is>
+      </c>
+      <c r="G34" s="92" t="inlineStr">
         <is>
           <t>是否合格：</t>
         </is>
       </c>
-      <c r="I34" s="94" t="inlineStr">
+      <c r="I34" s="92" t="inlineStr">
         <is>
           <t>合格（√） 不合格</t>
         </is>
@@ -6302,6 +6302,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:D34"/>
@@ -6318,78 +6390,6 @@
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="J32:J33"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
@@ -6410,103 +6410,103 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.33203125" customWidth="1" style="64" min="1" max="1"/>
-    <col width="3.77734375" customWidth="1" style="64" min="3" max="3"/>
-    <col width="15.33203125" customWidth="1" style="64" min="4" max="4"/>
-    <col width="7.77734375" customWidth="1" style="64" min="5" max="5"/>
-    <col width="13.44140625" customWidth="1" style="64" min="6" max="6"/>
-    <col width="4.88671875" customWidth="1" style="64" min="7" max="7"/>
-    <col width="7.88671875" customWidth="1" style="64" min="8" max="8"/>
-    <col width="6.109375" customWidth="1" style="64" min="9" max="9"/>
-    <col width="15.44140625" customWidth="1" style="64" min="10" max="10"/>
+    <col width="4.33203125" customWidth="1" style="39" min="1" max="1"/>
+    <col width="3.77734375" customWidth="1" style="39" min="3" max="3"/>
+    <col width="15.33203125" customWidth="1" style="39" min="4" max="4"/>
+    <col width="7.77734375" customWidth="1" style="39" min="5" max="5"/>
+    <col width="13.44140625" customWidth="1" style="39" min="6" max="6"/>
+    <col width="4.88671875" customWidth="1" style="39" min="7" max="7"/>
+    <col width="7.88671875" customWidth="1" style="39" min="8" max="8"/>
+    <col width="6.109375" customWidth="1" style="39" min="9" max="9"/>
+    <col width="15.44140625" customWidth="1" style="39" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.4" customHeight="1" s="64">
-      <c r="A1" s="81" t="inlineStr">
+    <row r="1" ht="29.4" customHeight="1" s="39">
+      <c r="A1" s="83" t="inlineStr">
         <is>
           <t>表5     611-03模拟量输出功能测试表</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" s="64">
-      <c r="A2" s="86" t="inlineStr">
+    <row r="2" ht="27" customHeight="1" s="39">
+      <c r="A2" s="88" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B2" s="86" t="inlineStr">
+      <c r="B2" s="88" t="inlineStr">
         <is>
           <t>信号名称</t>
         </is>
       </c>
-      <c r="C2" s="77" t="n"/>
-      <c r="D2" s="88" t="inlineStr">
+      <c r="C2" s="76" t="n"/>
+      <c r="D2" s="90" t="inlineStr">
         <is>
           <t>信号类型</t>
         </is>
       </c>
-      <c r="E2" s="88" t="inlineStr">
+      <c r="E2" s="90" t="inlineStr">
         <is>
           <t>输入
 电平</t>
         </is>
       </c>
-      <c r="F2" s="86" t="inlineStr">
+      <c r="F2" s="88" t="inlineStr">
         <is>
           <t>信号性质</t>
         </is>
       </c>
-      <c r="G2" s="88" t="inlineStr">
+      <c r="G2" s="90" t="inlineStr">
         <is>
           <t>节点</t>
         </is>
       </c>
-      <c r="H2" s="88" t="inlineStr">
+      <c r="H2" s="90" t="inlineStr">
         <is>
           <t>误差范围/V</t>
         </is>
       </c>
-      <c r="I2" s="88" t="inlineStr">
+      <c r="I2" s="90" t="inlineStr">
         <is>
           <t>测试结果/V</t>
         </is>
       </c>
-      <c r="J2" s="88" t="inlineStr">
+      <c r="J2" s="90" t="inlineStr">
         <is>
           <t>合格</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.6" customHeight="1" s="64">
-      <c r="A3" s="87" t="n"/>
-      <c r="B3" s="88" t="inlineStr">
+    <row r="3" ht="15.6" customHeight="1" s="39">
+      <c r="A3" s="89" t="n"/>
+      <c r="B3" s="90" t="inlineStr">
         <is>
           <t>板卡</t>
         </is>
       </c>
-      <c r="C3" s="88" t="inlineStr">
+      <c r="C3" s="90" t="inlineStr">
         <is>
           <t>路</t>
         </is>
       </c>
-      <c r="D3" s="87" t="n"/>
-      <c r="E3" s="87" t="n"/>
-      <c r="F3" s="87" t="n"/>
-      <c r="G3" s="87" t="n"/>
-      <c r="H3" s="87" t="n"/>
-      <c r="I3" s="87" t="n"/>
-      <c r="J3" s="87" t="n"/>
-    </row>
-    <row r="4" ht="26.4" customHeight="1" s="64">
+      <c r="D3" s="89" t="n"/>
+      <c r="E3" s="89" t="n"/>
+      <c r="F3" s="89" t="n"/>
+      <c r="G3" s="89" t="n"/>
+      <c r="H3" s="89" t="n"/>
+      <c r="I3" s="89" t="n"/>
+      <c r="J3" s="89" t="n"/>
+    </row>
+    <row r="4" ht="26.4" customHeight="1" s="39">
       <c r="A4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="91" t="inlineStr">
+      <c r="B4" s="93" t="inlineStr">
         <is>
           <t>AIO-DA</t>
         </is>
       </c>
-      <c r="C4" s="91" t="n">
+      <c r="C4" s="93" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -6527,13 +6527,15 @@
       <c r="G4" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="H4" s="92" t="inlineStr">
+      <c r="H4" s="94" t="inlineStr">
         <is>
           <t>4.5~5.5</t>
         </is>
       </c>
-      <c r="I4" s="92" t="n">
-        <v>4.789</v>
+      <c r="I4" s="94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="J4" s="95" t="inlineStr">
         <is>
@@ -6541,12 +6543,12 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="24" customHeight="1" s="64">
+    <row r="5" ht="24" customHeight="1" s="39">
       <c r="A5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="87" t="n"/>
-      <c r="C5" s="87" t="n"/>
+      <c r="B5" s="89" t="n"/>
+      <c r="C5" s="89" t="n"/>
       <c r="D5" s="3" t="inlineStr">
         <is>
           <t>SP2Y贮箱压力</t>
@@ -6565,20 +6567,20 @@
       <c r="G5" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="H5" s="87" t="n"/>
-      <c r="I5" s="87" t="n"/>
-      <c r="J5" s="87" t="n"/>
-    </row>
-    <row r="6" ht="22.2" customHeight="1" s="64">
+      <c r="H5" s="89" t="n"/>
+      <c r="I5" s="89" t="n"/>
+      <c r="J5" s="89" t="n"/>
+    </row>
+    <row r="6" ht="22.2" customHeight="1" s="39">
       <c r="A6" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="91" t="inlineStr">
+      <c r="B6" s="93" t="inlineStr">
         <is>
           <t>AIO-DA</t>
         </is>
       </c>
-      <c r="C6" s="91" t="n">
+      <c r="C6" s="93" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -6599,13 +6601,15 @@
       <c r="G6" s="3" t="n">
         <v>69</v>
       </c>
-      <c r="H6" s="92" t="inlineStr">
+      <c r="H6" s="94" t="inlineStr">
         <is>
           <t>4.5~5.5</t>
         </is>
       </c>
-      <c r="I6" s="92" t="n">
-        <v>4.79</v>
+      <c r="I6" s="94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="J6" s="95" t="inlineStr">
         <is>
@@ -6613,12 +6617,12 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="23.4" customHeight="1" s="64">
+    <row r="7" ht="23.4" customHeight="1" s="39">
       <c r="A7" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="87" t="n"/>
-      <c r="C7" s="87" t="n"/>
+      <c r="B7" s="89" t="n"/>
+      <c r="C7" s="89" t="n"/>
       <c r="D7" s="3" t="inlineStr">
         <is>
           <t>SP2R贮箱压力</t>
@@ -6637,20 +6641,20 @@
       <c r="G7" s="3" t="n">
         <v>71</v>
       </c>
-      <c r="H7" s="87" t="n"/>
-      <c r="I7" s="87" t="n"/>
-      <c r="J7" s="87" t="n"/>
-    </row>
-    <row r="8" ht="22.2" customHeight="1" s="64">
+      <c r="H7" s="89" t="n"/>
+      <c r="I7" s="89" t="n"/>
+      <c r="J7" s="89" t="n"/>
+    </row>
+    <row r="8" ht="22.2" customHeight="1" s="39">
       <c r="A8" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="91" t="inlineStr">
+      <c r="B8" s="93" t="inlineStr">
         <is>
           <t>AIO-DA</t>
         </is>
       </c>
-      <c r="C8" s="91" t="n">
+      <c r="C8" s="93" t="n">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -6671,13 +6675,15 @@
       <c r="G8" s="3" t="n">
         <v>73</v>
       </c>
-      <c r="H8" s="92" t="inlineStr">
+      <c r="H8" s="94" t="inlineStr">
         <is>
           <t>4.5~5.5</t>
         </is>
       </c>
-      <c r="I8" s="92" t="n">
-        <v>4.777</v>
+      <c r="I8" s="94" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="J8" s="95" t="inlineStr">
         <is>
@@ -6685,12 +6691,12 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="22.2" customHeight="1" s="64">
+    <row r="9" ht="22.2" customHeight="1" s="39">
       <c r="A9" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="87" t="n"/>
-      <c r="C9" s="87" t="n"/>
+      <c r="B9" s="89" t="n"/>
+      <c r="C9" s="89" t="n"/>
       <c r="D9" s="3" t="inlineStr">
         <is>
           <t>SP1Y贮箱压力</t>
@@ -6709,20 +6715,20 @@
       <c r="G9" s="3" t="n">
         <v>75</v>
       </c>
-      <c r="H9" s="87" t="n"/>
-      <c r="I9" s="87" t="n"/>
-      <c r="J9" s="87" t="n"/>
-    </row>
-    <row r="10" ht="23.4" customHeight="1" s="64">
+      <c r="H9" s="89" t="n"/>
+      <c r="I9" s="89" t="n"/>
+      <c r="J9" s="89" t="n"/>
+    </row>
+    <row r="10" ht="23.4" customHeight="1" s="39">
       <c r="A10" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="91" t="inlineStr">
+      <c r="B10" s="93" t="inlineStr">
         <is>
           <t>AIO-DA</t>
         </is>
       </c>
-      <c r="C10" s="91" t="n">
+      <c r="C10" s="93" t="n">
         <v>3</v>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -6743,13 +6749,15 @@
       <c r="G10" s="3" t="n">
         <v>76</v>
       </c>
-      <c r="H10" s="92" t="inlineStr">
+      <c r="H10" s="94" t="inlineStr">
         <is>
           <t>4.5~5.5</t>
         </is>
       </c>
-      <c r="I10" s="92" t="n">
-        <v>4.776</v>
+      <c r="I10" s="94" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="J10" s="95" t="inlineStr">
         <is>
@@ -6757,12 +6765,12 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="22.8" customHeight="1" s="64">
+    <row r="11" ht="22.8" customHeight="1" s="39">
       <c r="A11" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="87" t="n"/>
-      <c r="C11" s="87" t="n"/>
+      <c r="B11" s="89" t="n"/>
+      <c r="C11" s="89" t="n"/>
       <c r="D11" s="3" t="inlineStr">
         <is>
           <t>SP1R贮箱压力</t>
@@ -6783,16 +6791,16 @@
           <t>7 9</t>
         </is>
       </c>
-      <c r="H11" s="87" t="n"/>
-      <c r="I11" s="87" t="n"/>
-      <c r="J11" s="87" t="n"/>
-    </row>
-    <row r="12" ht="19.2" customHeight="1" s="64">
+      <c r="H11" s="89" t="n"/>
+      <c r="I11" s="89" t="n"/>
+      <c r="J11" s="89" t="n"/>
+    </row>
+    <row r="12" ht="19.2" customHeight="1" s="39">
       <c r="A12" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="91" t="n"/>
-      <c r="C12" s="91" t="n"/>
+      <c r="B12" s="93" t="n"/>
+      <c r="C12" s="93" t="n"/>
       <c r="D12" s="4" t="inlineStr">
         <is>
           <t>壳</t>
@@ -6827,73 +6835,82 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="15.6" customHeight="1" s="64">
-      <c r="A13" s="94" t="inlineStr">
+    <row r="13" ht="15.6" customHeight="1" s="39">
+      <c r="A13" s="92" t="inlineStr">
         <is>
           <t>测试人员</t>
         </is>
       </c>
-      <c r="C13" s="94" t="n"/>
+      <c r="C13" s="92" t="inlineStr">
+        <is>
+          <t>解梦迪</t>
+        </is>
+      </c>
       <c r="E13" s="8" t="inlineStr">
         <is>
           <t>测试时间</t>
         </is>
       </c>
-      <c r="G13" s="94" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2019/12/24</t>
+        </is>
+      </c>
+      <c r="G13" s="92" t="inlineStr">
         <is>
           <t>是否合格</t>
         </is>
       </c>
-      <c r="I13" s="94" t="inlineStr">
+      <c r="I13" s="92" t="inlineStr">
         <is>
           <t>合格（√） 不合格</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="29.4" customHeight="1" s="64">
-      <c r="A15" s="81" t="inlineStr">
+    <row r="15" ht="29.4" customHeight="1" s="39">
+      <c r="A15" s="83" t="inlineStr">
         <is>
           <t>表6   双机切换功能测试</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="37.8" customHeight="1" s="64">
-      <c r="A16" s="86" t="inlineStr">
+    <row r="16" ht="37.8" customHeight="1" s="39">
+      <c r="A16" s="88" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B16" s="88" t="inlineStr">
+      <c r="B16" s="90" t="inlineStr">
         <is>
           <t>测试项</t>
         </is>
       </c>
-      <c r="C16" s="88" t="inlineStr">
+      <c r="C16" s="90" t="inlineStr">
         <is>
           <t>性能指标</t>
         </is>
       </c>
-      <c r="D16" s="83" t="n"/>
+      <c r="D16" s="85" t="n"/>
       <c r="E16" s="99" t="inlineStr">
         <is>
           <t>实测值/s</t>
         </is>
       </c>
-      <c r="F16" s="74" t="n"/>
-      <c r="G16" s="74" t="n"/>
-      <c r="H16" s="74" t="n"/>
+      <c r="F16" s="79" t="n"/>
+      <c r="G16" s="79" t="n"/>
+      <c r="H16" s="79" t="n"/>
       <c r="I16" s="98" t="inlineStr">
         <is>
           <t>是否合格</t>
         </is>
       </c>
-      <c r="J16" s="83" t="n"/>
-    </row>
-    <row r="17" hidden="1" ht="15" customHeight="1" s="64">
-      <c r="A17" s="87" t="n"/>
-      <c r="B17" s="87" t="n"/>
-      <c r="C17" s="84" t="n"/>
-      <c r="D17" s="85" t="n"/>
+      <c r="J16" s="85" t="n"/>
+    </row>
+    <row r="17" hidden="1" ht="15" customHeight="1" s="39">
+      <c r="A17" s="89" t="n"/>
+      <c r="B17" s="89" t="n"/>
+      <c r="C17" s="86" t="n"/>
+      <c r="D17" s="87" t="n"/>
       <c r="E17" s="11" t="n"/>
       <c r="F17" s="12" t="n"/>
       <c r="G17" s="12" t="n"/>
@@ -6901,7 +6918,7 @@
       <c r="I17" s="13" t="n"/>
       <c r="J17" s="14" t="n"/>
     </row>
-    <row r="18" ht="50.4" customHeight="1" s="64">
+    <row r="18" ht="50.4" customHeight="1" s="39">
       <c r="A18" s="3" t="n">
         <v>1</v>
       </c>
@@ -6915,36 +6932,49 @@
           <t>主机和从机在5秒内完成切换</t>
         </is>
       </c>
-      <c r="D18" s="77" t="n"/>
-      <c r="E18" s="100" t="n"/>
-      <c r="F18" s="76" t="n"/>
-      <c r="G18" s="76" t="n"/>
-      <c r="H18" s="76" t="n"/>
+      <c r="D18" s="76" t="n"/>
+      <c r="E18" s="100" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="F18" s="75" t="n"/>
+      <c r="G18" s="75" t="n"/>
+      <c r="H18" s="75" t="n"/>
       <c r="I18" s="97" t="inlineStr">
         <is>
           <t xml:space="preserve">   是（ √）否（ ）</t>
         </is>
       </c>
-      <c r="J18" s="77" t="n"/>
-    </row>
-    <row r="19" ht="15.6" customHeight="1" s="64">
-      <c r="A19" s="94" t="inlineStr">
+      <c r="J18" s="76" t="n"/>
+    </row>
+    <row r="19" ht="15.6" customHeight="1" s="39">
+      <c r="A19" s="92" t="inlineStr">
         <is>
           <t>测试人员</t>
         </is>
       </c>
-      <c r="C19" s="94" t="n"/>
+      <c r="C19" s="92" t="inlineStr">
+        <is>
+          <t>解梦迪</t>
+        </is>
+      </c>
       <c r="E19" s="8" t="inlineStr">
         <is>
           <t>测试时间</t>
         </is>
       </c>
-      <c r="G19" s="94" t="inlineStr">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2019/12/24</t>
+        </is>
+      </c>
+      <c r="G19" s="92" t="inlineStr">
         <is>
           <t>是否合格</t>
         </is>
       </c>
-      <c r="I19" s="94" t="inlineStr">
+      <c r="I19" s="92" t="inlineStr">
         <is>
           <t>合格（√） 不合格</t>
         </is>
@@ -6952,6 +6982,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="G19:H19"/>
@@ -6968,37 +7029,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A15:J15"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
@@ -7019,26 +7049,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="11.109375" customWidth="1" style="64" min="2" max="2"/>
-    <col width="7.33203125" customWidth="1" style="64" min="5" max="5"/>
-    <col width="8.44140625" customWidth="1" style="64" min="7" max="7"/>
+    <col width="11.109375" customWidth="1" style="39" min="2" max="2"/>
+    <col width="7.33203125" customWidth="1" style="39" min="5" max="5"/>
+    <col width="8.44140625" customWidth="1" style="39" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.2" customHeight="1" s="64">
-      <c r="A1" s="101" t="inlineStr">
+    <row r="1" ht="31.2" customHeight="1" s="39">
+      <c r="A1" s="103" t="inlineStr">
         <is>
           <t>表7     串口422通讯功能测试表</t>
         </is>
       </c>
-      <c r="B1" s="102" t="n"/>
-      <c r="C1" s="102" t="n"/>
-      <c r="D1" s="102" t="n"/>
-      <c r="E1" s="102" t="n"/>
-      <c r="F1" s="102" t="n"/>
-      <c r="G1" s="102" t="n"/>
-      <c r="H1" s="102" t="n"/>
-      <c r="I1" s="102" t="n"/>
-      <c r="J1" s="102" t="n"/>
+      <c r="B1" s="104" t="n"/>
+      <c r="C1" s="104" t="n"/>
+      <c r="D1" s="104" t="n"/>
+      <c r="E1" s="104" t="n"/>
+      <c r="F1" s="104" t="n"/>
+      <c r="G1" s="104" t="n"/>
+      <c r="H1" s="104" t="n"/>
+      <c r="I1" s="104" t="n"/>
+      <c r="J1" s="104" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="15" t="inlineStr">
@@ -7046,33 +7076,33 @@
           <t>功能测试序号</t>
         </is>
       </c>
-      <c r="B2" s="104" t="inlineStr">
+      <c r="B2" s="106" t="inlineStr">
         <is>
           <t>串口名称</t>
         </is>
       </c>
-      <c r="C2" s="104" t="inlineStr">
+      <c r="C2" s="106" t="inlineStr">
         <is>
           <t>发送数据</t>
         </is>
       </c>
-      <c r="D2" s="76" t="n"/>
-      <c r="E2" s="77" t="n"/>
-      <c r="F2" s="104" t="inlineStr">
+      <c r="D2" s="75" t="n"/>
+      <c r="E2" s="76" t="n"/>
+      <c r="F2" s="106" t="inlineStr">
         <is>
           <t>接收数据</t>
         </is>
       </c>
-      <c r="G2" s="77" t="n"/>
-      <c r="H2" s="104" t="inlineStr">
+      <c r="G2" s="76" t="n"/>
+      <c r="H2" s="106" t="inlineStr">
         <is>
           <t>是否合格</t>
         </is>
       </c>
-      <c r="I2" s="76" t="n"/>
-      <c r="J2" s="77" t="n"/>
-    </row>
-    <row r="3" ht="22.8" customHeight="1" s="64">
+      <c r="I2" s="75" t="n"/>
+      <c r="J2" s="76" t="n"/>
+    </row>
+    <row r="3" ht="22.8" customHeight="1" s="39">
       <c r="A3" s="9" t="n">
         <v>1</v>
       </c>
@@ -7081,28 +7111,28 @@
           <t>611-04</t>
         </is>
       </c>
-      <c r="C3" s="105" t="inlineStr">
+      <c r="C3" s="107" t="inlineStr">
         <is>
           <t>11 22 33 44 55</t>
         </is>
       </c>
-      <c r="D3" s="76" t="n"/>
-      <c r="E3" s="77" t="n"/>
-      <c r="F3" s="105" t="inlineStr">
+      <c r="D3" s="75" t="n"/>
+      <c r="E3" s="76" t="n"/>
+      <c r="F3" s="107" t="inlineStr">
         <is>
           <t>11 22 33 44 55</t>
         </is>
       </c>
-      <c r="G3" s="77" t="n"/>
-      <c r="H3" s="105" t="inlineStr">
+      <c r="G3" s="76" t="n"/>
+      <c r="H3" s="107" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I3" s="76" t="n"/>
-      <c r="J3" s="77" t="n"/>
-    </row>
-    <row r="4" ht="22.2" customHeight="1" s="64">
+      <c r="I3" s="75" t="n"/>
+      <c r="J3" s="76" t="n"/>
+    </row>
+    <row r="4" ht="22.2" customHeight="1" s="39">
       <c r="A4" s="9" t="n">
         <v>2</v>
       </c>
@@ -7111,28 +7141,28 @@
           <t>611-07</t>
         </is>
       </c>
-      <c r="C4" s="105" t="inlineStr">
+      <c r="C4" s="107" t="inlineStr">
         <is>
           <t>11 22 33 44 55</t>
         </is>
       </c>
-      <c r="D4" s="76" t="n"/>
-      <c r="E4" s="77" t="n"/>
-      <c r="F4" s="105" t="inlineStr">
+      <c r="D4" s="75" t="n"/>
+      <c r="E4" s="76" t="n"/>
+      <c r="F4" s="107" t="inlineStr">
         <is>
           <t>11 22 33 44 55</t>
         </is>
       </c>
-      <c r="G4" s="77" t="n"/>
-      <c r="H4" s="105" t="inlineStr">
+      <c r="G4" s="76" t="n"/>
+      <c r="H4" s="107" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I4" s="76" t="n"/>
-      <c r="J4" s="77" t="n"/>
-    </row>
-    <row r="5" ht="22.2" customHeight="1" s="64">
+      <c r="I4" s="75" t="n"/>
+      <c r="J4" s="76" t="n"/>
+    </row>
+    <row r="5" ht="22.2" customHeight="1" s="39">
       <c r="A5" s="9" t="n">
         <v>3</v>
       </c>
@@ -7141,28 +7171,28 @@
           <t>611-08</t>
         </is>
       </c>
-      <c r="C5" s="105" t="inlineStr">
+      <c r="C5" s="107" t="inlineStr">
         <is>
           <t>11 22 33 44 55</t>
         </is>
       </c>
-      <c r="D5" s="76" t="n"/>
-      <c r="E5" s="77" t="n"/>
-      <c r="F5" s="105" t="inlineStr">
+      <c r="D5" s="75" t="n"/>
+      <c r="E5" s="76" t="n"/>
+      <c r="F5" s="107" t="inlineStr">
         <is>
           <t>11 22 33 44 55</t>
         </is>
       </c>
-      <c r="G5" s="77" t="n"/>
-      <c r="H5" s="105" t="inlineStr">
+      <c r="G5" s="76" t="n"/>
+      <c r="H5" s="107" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I5" s="76" t="n"/>
-      <c r="J5" s="77" t="n"/>
-    </row>
-    <row r="6" ht="22.8" customHeight="1" s="64">
+      <c r="I5" s="75" t="n"/>
+      <c r="J5" s="76" t="n"/>
+    </row>
+    <row r="6" ht="22.8" customHeight="1" s="39">
       <c r="A6" s="9" t="n">
         <v>4</v>
       </c>
@@ -7171,26 +7201,26 @@
           <t>611-09</t>
         </is>
       </c>
-      <c r="C6" s="105" t="inlineStr">
+      <c r="C6" s="107" t="inlineStr">
         <is>
           <t>11 22 33 44 55</t>
         </is>
       </c>
-      <c r="D6" s="76" t="n"/>
-      <c r="E6" s="77" t="n"/>
-      <c r="F6" s="105" t="inlineStr">
+      <c r="D6" s="75" t="n"/>
+      <c r="E6" s="76" t="n"/>
+      <c r="F6" s="107" t="inlineStr">
         <is>
           <t>11 22 33 44 55</t>
         </is>
       </c>
-      <c r="G6" s="77" t="n"/>
-      <c r="H6" s="105" t="inlineStr">
+      <c r="G6" s="76" t="n"/>
+      <c r="H6" s="107" t="inlineStr">
         <is>
           <t>是（√ ）否（ ）</t>
         </is>
       </c>
-      <c r="I6" s="76" t="n"/>
-      <c r="J6" s="77" t="n"/>
+      <c r="I6" s="75" t="n"/>
+      <c r="J6" s="76" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7198,87 +7228,95 @@
           <t>测试人员：</t>
         </is>
       </c>
-      <c r="B7" s="103" t="n"/>
-      <c r="C7" s="74" t="n"/>
+      <c r="B7" s="101" t="inlineStr">
+        <is>
+          <t>解梦迪</t>
+        </is>
+      </c>
+      <c r="C7" s="79" t="n"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>测试时间：</t>
         </is>
       </c>
-      <c r="E7" s="103" t="n"/>
-      <c r="F7" s="74" t="n"/>
-      <c r="G7" s="103" t="inlineStr">
+      <c r="E7" s="101" t="inlineStr">
+        <is>
+          <t>2019/12/24</t>
+        </is>
+      </c>
+      <c r="F7" s="79" t="n"/>
+      <c r="G7" s="101" t="inlineStr">
         <is>
           <t>是否合格：合格（√） 不合格</t>
         </is>
       </c>
-      <c r="H7" s="74" t="n"/>
-      <c r="I7" s="74" t="n"/>
-      <c r="J7" s="74" t="n"/>
-    </row>
-    <row r="9" ht="34.8" customHeight="1" s="64">
-      <c r="A9" s="101" t="inlineStr">
+      <c r="H7" s="79" t="n"/>
+      <c r="I7" s="79" t="n"/>
+      <c r="J7" s="79" t="n"/>
+    </row>
+    <row r="9" ht="34.8" customHeight="1" s="39">
+      <c r="A9" s="103" t="inlineStr">
         <is>
           <t>表8     CPU温度、占用率以及硬盘空间记录</t>
         </is>
       </c>
-      <c r="B9" s="102" t="n"/>
-      <c r="C9" s="102" t="n"/>
-      <c r="D9" s="102" t="n"/>
-      <c r="E9" s="102" t="n"/>
-      <c r="F9" s="102" t="n"/>
-      <c r="G9" s="102" t="n"/>
-      <c r="H9" s="102" t="n"/>
-      <c r="I9" s="102" t="n"/>
-      <c r="J9" s="102" t="n"/>
-    </row>
-    <row r="10" ht="28.8" customHeight="1" s="64">
-      <c r="A10" s="104" t="inlineStr">
+      <c r="B9" s="104" t="n"/>
+      <c r="C9" s="104" t="n"/>
+      <c r="D9" s="104" t="n"/>
+      <c r="E9" s="104" t="n"/>
+      <c r="F9" s="104" t="n"/>
+      <c r="G9" s="104" t="n"/>
+      <c r="H9" s="104" t="n"/>
+      <c r="I9" s="104" t="n"/>
+      <c r="J9" s="104" t="n"/>
+    </row>
+    <row r="10" ht="28.8" customHeight="1" s="39">
+      <c r="A10" s="106" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B10" s="106" t="inlineStr">
+      <c r="B10" s="105" t="inlineStr">
         <is>
           <t>CPU温度</t>
         </is>
       </c>
-      <c r="C10" s="76" t="n"/>
-      <c r="D10" s="77" t="n"/>
-      <c r="E10" s="106" t="inlineStr">
+      <c r="C10" s="75" t="n"/>
+      <c r="D10" s="76" t="n"/>
+      <c r="E10" s="105" t="inlineStr">
         <is>
           <t>CPU占用率</t>
         </is>
       </c>
-      <c r="F10" s="76" t="n"/>
-      <c r="G10" s="77" t="n"/>
-      <c r="H10" s="104" t="inlineStr">
+      <c r="F10" s="75" t="n"/>
+      <c r="G10" s="76" t="n"/>
+      <c r="H10" s="106" t="inlineStr">
         <is>
           <t>硬盘空间</t>
         </is>
       </c>
-      <c r="I10" s="76" t="n"/>
-      <c r="J10" s="77" t="n"/>
-    </row>
-    <row r="11" ht="25.8" customHeight="1" s="64">
+      <c r="I10" s="75" t="n"/>
+      <c r="J10" s="76" t="n"/>
+    </row>
+    <row r="11" ht="25.8" customHeight="1" s="39">
       <c r="A11" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="107" t="n">
+      <c r="B11" s="102" t="n">
         <v>59</v>
       </c>
-      <c r="C11" s="76" t="n"/>
-      <c r="D11" s="77" t="n"/>
-      <c r="E11" s="107" t="n">
+      <c r="C11" s="75" t="n"/>
+      <c r="D11" s="76" t="n"/>
+      <c r="E11" s="102" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="76" t="n"/>
-      <c r="G11" s="77" t="n"/>
-      <c r="H11" s="107" t="n">
+      <c r="F11" s="75" t="n"/>
+      <c r="G11" s="76" t="n"/>
+      <c r="H11" s="102" t="n">
         <v>121046</v>
       </c>
-      <c r="I11" s="76" t="n"/>
-      <c r="J11" s="77" t="n"/>
+      <c r="I11" s="75" t="n"/>
+      <c r="J11" s="76" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7286,80 +7324,94 @@
           <t>测试人员：</t>
         </is>
       </c>
-      <c r="B12" s="103" t="n"/>
-      <c r="C12" s="74" t="n"/>
+      <c r="B12" s="101" t="inlineStr">
+        <is>
+          <t>解梦迪</t>
+        </is>
+      </c>
+      <c r="C12" s="79" t="n"/>
       <c r="D12" t="inlineStr">
         <is>
           <t>测试时间：</t>
         </is>
       </c>
-      <c r="E12" s="103" t="n"/>
-      <c r="F12" s="74" t="n"/>
-      <c r="G12" s="103" t="inlineStr">
+      <c r="E12" s="101" t="inlineStr">
+        <is>
+          <t>2019/12/24</t>
+        </is>
+      </c>
+      <c r="F12" s="79" t="n"/>
+      <c r="G12" s="101" t="inlineStr">
         <is>
           <t>是否合格：合格（√） 不合格</t>
         </is>
       </c>
-      <c r="H12" s="74" t="n"/>
-      <c r="I12" s="74" t="n"/>
-      <c r="J12" s="74" t="n"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" s="64">
-      <c r="A14" s="81" t="inlineStr">
+      <c r="H12" s="79" t="n"/>
+      <c r="I12" s="79" t="n"/>
+      <c r="J12" s="79" t="n"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" s="39">
+      <c r="A14" s="83" t="inlineStr">
         <is>
           <t>表9   设备功耗功能测试</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="46.8" customHeight="1" s="64">
-      <c r="A15" s="88" t="inlineStr">
+    <row r="15" ht="46.8" customHeight="1" s="39">
+      <c r="A15" s="90" t="inlineStr">
         <is>
           <t>实测电流/A</t>
         </is>
       </c>
-      <c r="B15" s="88" t="inlineStr">
+      <c r="B15" s="90" t="inlineStr">
         <is>
           <t>实测电压/V</t>
         </is>
       </c>
-      <c r="C15" s="76" t="n"/>
-      <c r="D15" s="77" t="n"/>
-      <c r="E15" s="88" t="inlineStr">
+      <c r="C15" s="75" t="n"/>
+      <c r="D15" s="76" t="n"/>
+      <c r="E15" s="90" t="inlineStr">
         <is>
           <t>实测功率W</t>
         </is>
       </c>
-      <c r="F15" s="77" t="n"/>
-      <c r="G15" s="88" t="inlineStr">
+      <c r="F15" s="76" t="n"/>
+      <c r="G15" s="90" t="inlineStr">
         <is>
           <t>是否满足≤150W</t>
         </is>
       </c>
-      <c r="H15" s="76" t="n"/>
-      <c r="I15" s="76" t="n"/>
-      <c r="J15" s="77" t="n"/>
-    </row>
-    <row r="16" ht="22.8" customHeight="1" s="64">
-      <c r="A16" s="3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="B16" s="91" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C16" s="76" t="n"/>
-      <c r="D16" s="77" t="n"/>
-      <c r="E16" s="91" t="n">
-        <v>30.525</v>
-      </c>
-      <c r="F16" s="77" t="n"/>
+      <c r="H15" s="75" t="n"/>
+      <c r="I15" s="75" t="n"/>
+      <c r="J15" s="76" t="n"/>
+    </row>
+    <row r="16" ht="22.8" customHeight="1" s="39">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B16" s="93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C16" s="75" t="n"/>
+      <c r="D16" s="76" t="n"/>
+      <c r="E16" s="93" t="inlineStr">
+        <is>
+          <t>12.0000</t>
+        </is>
+      </c>
+      <c r="F16" s="76" t="n"/>
       <c r="G16" s="96" t="inlineStr">
         <is>
           <t>√</t>
         </is>
       </c>
-      <c r="H16" s="76" t="n"/>
-      <c r="I16" s="76" t="n"/>
-      <c r="J16" s="77" t="n"/>
+      <c r="H16" s="75" t="n"/>
+      <c r="I16" s="75" t="n"/>
+      <c r="J16" s="76" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7367,84 +7419,92 @@
           <t>测试人员：</t>
         </is>
       </c>
-      <c r="B17" s="103" t="n"/>
-      <c r="C17" s="74" t="n"/>
+      <c r="B17" s="101" t="inlineStr">
+        <is>
+          <t>解梦迪</t>
+        </is>
+      </c>
+      <c r="C17" s="79" t="n"/>
       <c r="D17" t="inlineStr">
         <is>
           <t>测试时间：</t>
         </is>
       </c>
-      <c r="E17" s="103" t="n"/>
-      <c r="F17" s="74" t="n"/>
-      <c r="G17" s="103" t="inlineStr">
+      <c r="E17" s="101" t="inlineStr">
+        <is>
+          <t>2019/12/24</t>
+        </is>
+      </c>
+      <c r="F17" s="79" t="n"/>
+      <c r="G17" s="101" t="inlineStr">
         <is>
           <t>是否合格：合格（√） 不合格</t>
         </is>
       </c>
-      <c r="H17" s="74" t="n"/>
-      <c r="I17" s="74" t="n"/>
-      <c r="J17" s="74" t="n"/>
-    </row>
-    <row r="20" ht="36.6" customHeight="1" s="64">
-      <c r="A20" s="81" t="inlineStr">
+      <c r="H17" s="79" t="n"/>
+      <c r="I17" s="79" t="n"/>
+      <c r="J17" s="79" t="n"/>
+    </row>
+    <row r="20" ht="36.6" customHeight="1" s="39">
+      <c r="A20" s="83" t="inlineStr">
         <is>
           <t>表10     双机心跳频率功能测试</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="46.2" customHeight="1" s="64">
-      <c r="A21" s="88" t="inlineStr">
+    <row r="21" ht="46.2" customHeight="1" s="39">
+      <c r="A21" s="90" t="inlineStr">
         <is>
           <t>测试项</t>
         </is>
       </c>
-      <c r="B21" s="88" t="inlineStr">
+      <c r="B21" s="90" t="inlineStr">
         <is>
           <t>实测脉冲数据</t>
         </is>
       </c>
-      <c r="C21" s="76" t="n"/>
-      <c r="D21" s="76" t="n"/>
-      <c r="E21" s="77" t="n"/>
-      <c r="F21" s="88" t="inlineStr">
+      <c r="C21" s="75" t="n"/>
+      <c r="D21" s="75" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="90" t="inlineStr">
         <is>
           <t>每16.67ms记录方波数满足条件</t>
         </is>
       </c>
-      <c r="G21" s="76" t="n"/>
-      <c r="H21" s="77" t="n"/>
-      <c r="I21" s="88" t="inlineStr">
+      <c r="G21" s="75" t="n"/>
+      <c r="H21" s="76" t="n"/>
+      <c r="I21" s="90" t="inlineStr">
         <is>
           <t>是否满足</t>
         </is>
       </c>
-      <c r="J21" s="77" t="n"/>
-    </row>
-    <row r="22" ht="31.8" customHeight="1" s="64">
+      <c r="J21" s="76" t="n"/>
+    </row>
+    <row r="22" ht="31.8" customHeight="1" s="39">
       <c r="A22" s="4" t="inlineStr">
         <is>
           <t>心跳数据</t>
         </is>
       </c>
-      <c r="B22" s="91" t="n">
+      <c r="B22" s="93" t="n">
         <v>167</v>
       </c>
-      <c r="C22" s="76" t="n"/>
-      <c r="D22" s="76" t="n"/>
-      <c r="E22" s="77" t="n"/>
-      <c r="F22" s="91" t="inlineStr">
+      <c r="C22" s="75" t="n"/>
+      <c r="D22" s="75" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="93" t="inlineStr">
         <is>
           <t>166~168个</t>
         </is>
       </c>
-      <c r="G22" s="76" t="n"/>
-      <c r="H22" s="77" t="n"/>
+      <c r="G22" s="75" t="n"/>
+      <c r="H22" s="76" t="n"/>
       <c r="I22" s="96" t="inlineStr">
         <is>
           <t>√</t>
         </is>
       </c>
-      <c r="J22" s="77" t="n"/>
+      <c r="J22" s="76" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7452,59 +7512,34 @@
           <t>测试人员：</t>
         </is>
       </c>
-      <c r="B23" s="103" t="n"/>
-      <c r="C23" s="74" t="n"/>
+      <c r="B23" s="101" t="inlineStr">
+        <is>
+          <t>解梦迪</t>
+        </is>
+      </c>
+      <c r="C23" s="79" t="n"/>
       <c r="D23" t="inlineStr">
         <is>
           <t>测试时间：</t>
         </is>
       </c>
-      <c r="E23" s="103" t="n"/>
-      <c r="F23" s="74" t="n"/>
-      <c r="G23" s="103" t="inlineStr">
+      <c r="E23" s="101" t="inlineStr">
+        <is>
+          <t>2019/12/24</t>
+        </is>
+      </c>
+      <c r="F23" s="79" t="n"/>
+      <c r="G23" s="101" t="inlineStr">
         <is>
           <t>是否合格：合格（√） 不合格</t>
         </is>
       </c>
-      <c r="H23" s="74" t="n"/>
-      <c r="I23" s="74" t="n"/>
-      <c r="J23" s="74" t="n"/>
+      <c r="H23" s="79" t="n"/>
+      <c r="I23" s="79" t="n"/>
+      <c r="J23" s="79" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:F7"/>
@@ -7521,6 +7556,39 @@
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
